--- a/Data/DataAlreadyUploadedToEDI/EDIProductionFiles/MakeEMLFilteredChlorophyll/data/2022_data/chl_calculations/Chla calculations from 20230119_ABP_DWH_WMW_forScotty.xlsx
+++ b/Data/DataAlreadyUploadedToEDI/EDIProductionFiles/MakeEMLFilteredChlorophyll/data/2022_data/chl_calculations/Chla calculations from 20230119_ABP_DWH_WMW_forScotty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwoel\Dropbox\Thesis\Data\analytical chemistry\chla_extraction\chla calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwoel\Desktop\Reservoirs_2\Data\DataAlreadyUploadedToEDI\EDIProductionFiles\MakeEMLFilteredChlorophyll\data\2022_data\chl_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C5364-565D-4CB2-8293-F74DA79FC7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6069F1-CA42-408F-8F66-F8B7CB913AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="189">
   <si>
     <t>Sample ID</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>CL01 7/14</t>
+  </si>
+  <si>
+    <t>Max Creek (1) from bottom???</t>
   </si>
 </sst>
 </file>
@@ -727,21 +730,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5371,10 +5374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB48"/>
+  <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
+    <sheetView tabSelected="1" topLeftCell="AF18" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6607,7 +6610,9 @@
         <v>151</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10"/>
+      <c r="C10">
+        <v>1030</v>
+      </c>
       <c r="D10" s="3">
         <v>6</v>
       </c>
@@ -6699,13 +6704,13 @@
         <f>1000*28.64*(1.72*(AC10-AC$8)-(AB10-AB$8))</f>
         <v>-22.148266666666892</v>
       </c>
-      <c r="AJ10" s="8" t="e">
+      <c r="AJ10" s="8">
         <f t="shared" ref="AJ10:AJ15" si="20">(AF10*D10/1000)/((C10/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK10" s="4" t="e">
+        <v>2.8918058252427183</v>
+      </c>
+      <c r="AK10" s="4">
         <f>(AG10*D10/1000)/((C10/1000)*1)</f>
-        <v>#DIV/0!</v>
+        <v>-0.12901902912621444</v>
       </c>
       <c r="AM10" s="8">
         <f>AB10/AC10</f>
@@ -6761,7 +6766,9 @@
         <v>152</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11"/>
+      <c r="C11">
+        <v>1012</v>
+      </c>
       <c r="D11" s="3">
         <v>6</v>
       </c>
@@ -6828,84 +6835,84 @@
         <v>0.109</v>
       </c>
       <c r="AB11" s="6">
-        <f t="shared" ref="AB11:AB15" si="31">J11-H11</f>
+        <f t="shared" ref="AB11:AB49" si="31">J11-H11</f>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AC11" s="6">
-        <f t="shared" ref="AC11:AC15" si="32">T11-S11</f>
+        <f t="shared" ref="AC11:AC49" si="32">T11-S11</f>
         <v>4.7E-2</v>
       </c>
       <c r="AD11" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AD11:AD49" si="33">AB11-AC11</f>
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="AE11" s="6"/>
       <c r="AF11" s="7">
-        <f t="shared" ref="AF11:AF15" si="33">(1000*28.64*AD11)-AF$8</f>
+        <f t="shared" ref="AF11:AF49" si="34">(1000*28.64*AD11)-AF$8</f>
         <v>983.30666666666662</v>
       </c>
       <c r="AG11" s="7">
-        <f t="shared" ref="AG11:AG15" si="34">(1000*28.64*((1.72*AC11)-AB11))-AG$8</f>
+        <f t="shared" ref="AG11:AG49" si="35">(1000*28.64*((1.72*AC11)-AB11))-AG$8</f>
         <v>-220.33706666666669</v>
       </c>
       <c r="AH11" s="7">
-        <f t="shared" ref="AH11:AH15" si="35">1000*28.64*(1.72*(AC11-AC$8)-(AB11-AB$8))</f>
+        <f t="shared" ref="AH11:AH49" si="36">1000*28.64*(1.72*(AC11-AC$8)-(AB11-AB$8))</f>
         <v>-220.33706666666657</v>
       </c>
-      <c r="AJ11" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK11" s="4" t="e">
-        <f t="shared" ref="AK11:AK15" si="36">(AG11*D11/1000)/((C11/1000)*1)</f>
-        <v>#DIV/0!</v>
+      <c r="AJ11" s="8">
+        <f t="shared" ref="AJ11:AJ49" si="37">(AF11*D11/1000)/((C11/1000)*1)</f>
+        <v>5.8298814229249016</v>
+      </c>
+      <c r="AK11" s="4">
+        <f t="shared" ref="AK11:AK49" si="38">(AG11*D11/1000)/((C11/1000)*1)</f>
+        <v>-1.3063462450592886</v>
       </c>
       <c r="AM11" s="8">
-        <f t="shared" ref="AM11:AM15" si="37">AB11/AC11</f>
+        <f t="shared" ref="AM11:AM49" si="39">AB11/AC11</f>
         <v>1.5319148936170213</v>
       </c>
       <c r="AN11" s="8">
-        <f t="shared" ref="AN11:AN15" si="38">(AB11-AB$8)/(AC11-AC$8)</f>
+        <f t="shared" ref="AN11:AN49" si="40">(AB11-AB$8)/(AC11-AC$8)</f>
         <v>1.927927927927928</v>
       </c>
       <c r="AP11" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AP11:AP49" si="41">O11-H11</f>
         <v>0.10199999999999999</v>
       </c>
       <c r="AQ11" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AQ11:AQ49" si="42">N11-H11</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="AR11" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AR11:AR49" si="43">K11-H11</f>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="AT11" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AT11:AT49" si="44">(1.04*AP11)+(0.79*AR11)-(0.27*AQ11)</f>
         <v>0.14949999999999999</v>
       </c>
       <c r="AU11" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AU11:AU49" si="45">(1.02*AR11)-(0.27*AP11)+(0.01*AQ11)</f>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="AV11" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AV11:AV49" si="46">(1.02*AQ11)-(0.08*AP11)-(0.026*AR11)</f>
         <v>3.4899999999999994E-2</v>
       </c>
       <c r="AX11" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="AX11:AX49" si="47">1000000*AU11/(89.71*1)</f>
         <v>493.81339872923871</v>
       </c>
       <c r="AY11" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AY11:AY49" si="48">1000000*AT11/(112.61*1)</f>
         <v>1327.5908001065625</v>
       </c>
       <c r="AZ11" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AZ11:AZ49" si="49">1000000*AV11/(262*1)</f>
         <v>133.20610687022898</v>
       </c>
       <c r="BB11" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="BB11:BB49" si="50">1000*((11.85*(J11-H11))-(1.54*(L11-H11))-(0.08*(M11-H11)))</f>
         <v>813.42000000000007</v>
       </c>
     </row>
@@ -6913,8 +6920,12 @@
       <c r="A12" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12"/>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12">
+        <v>1064</v>
+      </c>
       <c r="D12" s="3">
         <v>6</v>
       </c>
@@ -6989,76 +7000,76 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD12" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>353.22666666666669</v>
       </c>
       <c r="AG12" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-456.33066666666673</v>
       </c>
       <c r="AH12" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-456.33066666666667</v>
       </c>
-      <c r="AJ12" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="4" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+      <c r="AJ12" s="8">
+        <f t="shared" si="37"/>
+        <v>1.99187969924812</v>
+      </c>
+      <c r="AK12" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.573293233082707</v>
       </c>
       <c r="AM12" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.6</v>
       </c>
       <c r="AN12" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1.4666666666666666</v>
       </c>
       <c r="AP12" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>2.3E-2</v>
       </c>
       <c r="AQ12" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="AR12" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AT12" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>2.7809999999999998E-2</v>
       </c>
       <c r="AU12" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>2.0400000000000001E-3</v>
       </c>
       <c r="AV12" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>7.1320000000000012E-3</v>
       </c>
       <c r="AX12" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>22.739939806041694</v>
       </c>
       <c r="AY12" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>246.95852943788293</v>
       </c>
       <c r="AZ12" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>27.221374045801529</v>
       </c>
       <c r="BB12" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>90.02</v>
       </c>
     </row>
@@ -7067,7 +7078,9 @@
         <v>154</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13"/>
+      <c r="C13">
+        <v>1038</v>
+      </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
@@ -7141,76 +7154,76 @@
         <v>0.183</v>
       </c>
       <c r="AD13" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0.11799999999999999</v>
       </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3646.8266666666668</v>
       </c>
       <c r="AG13" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-79.428266666666843</v>
       </c>
       <c r="AH13" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-79.428266666667142</v>
       </c>
-      <c r="AJ13" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK13" s="4" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+      <c r="AJ13" s="8">
+        <f t="shared" si="37"/>
+        <v>21.079922928709053</v>
+      </c>
+      <c r="AK13" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.45912292870905685</v>
       </c>
       <c r="AM13" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.644808743169399</v>
       </c>
       <c r="AN13" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.7360308285163779</v>
       </c>
       <c r="AP13" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>0.36799999999999999</v>
       </c>
       <c r="AQ13" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.19600000000000001</v>
       </c>
       <c r="AR13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="AT13" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>0.56364000000000003</v>
       </c>
       <c r="AU13" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>0.20451999999999995</v>
       </c>
       <c r="AV13" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>0.16278400000000001</v>
       </c>
       <c r="AX13" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>2279.7904358488458</v>
       </c>
       <c r="AY13" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>5005.2393215522598</v>
       </c>
       <c r="AZ13" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>621.3129770992366</v>
       </c>
       <c r="BB13" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>3416.25</v>
       </c>
     </row>
@@ -7219,7 +7232,9 @@
         <v>155</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14"/>
+      <c r="C14">
+        <v>1059</v>
+      </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
@@ -7294,76 +7309,76 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2415.3066666666668</v>
       </c>
       <c r="AG14" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-229.5018666666667</v>
       </c>
       <c r="AH14" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-229.50186666666619</v>
       </c>
-      <c r="AJ14" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="4" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+      <c r="AJ14" s="8">
+        <f t="shared" si="37"/>
+        <v>13.684457034938623</v>
+      </c>
+      <c r="AK14" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.3002938621340889</v>
       </c>
       <c r="AM14" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.646551724137931</v>
       </c>
       <c r="AN14" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.7955974842767293</v>
       </c>
       <c r="AP14" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>0.23300000000000001</v>
       </c>
       <c r="AQ14" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.112</v>
       </c>
       <c r="AR14" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>0.188</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>0.36060000000000003</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>0.12997000000000003</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>9.0712000000000001E-2</v>
       </c>
       <c r="AX14" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1448.7794002898231</v>
       </c>
       <c r="AY14" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>3202.2022910931537</v>
       </c>
       <c r="AZ14" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>346.2290076335878</v>
       </c>
       <c r="BB14" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>2165.81</v>
       </c>
     </row>
@@ -7372,7 +7387,9 @@
         <v>156</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15"/>
+      <c r="C15">
+        <v>1082</v>
+      </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
@@ -7447,76 +7464,76 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD15" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>410.50666666666666</v>
       </c>
       <c r="AG15" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-451.74826666666672</v>
       </c>
       <c r="AH15" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-451.74826666666667</v>
       </c>
-      <c r="AJ15" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK15" s="4" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+      <c r="AJ15" s="8">
+        <f t="shared" si="37"/>
+        <v>2.2763770794824398</v>
+      </c>
+      <c r="AK15" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.5050735674676528</v>
       </c>
       <c r="AM15" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.625</v>
       </c>
       <c r="AN15" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-6.166666666666667</v>
       </c>
       <c r="AP15" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>4.3000000000000003E-2</v>
       </c>
       <c r="AQ15" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.01</v>
       </c>
       <c r="AR15" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>1.2E-2</v>
       </c>
       <c r="AT15" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>5.1500000000000004E-2</v>
       </c>
       <c r="AU15" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>7.2999999999999866E-4</v>
       </c>
       <c r="AV15" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>6.4480000000000006E-3</v>
       </c>
       <c r="AX15" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>8.1373314011815712</v>
       </c>
       <c r="AY15" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>457.33061007015368</v>
       </c>
       <c r="AZ15" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>24.610687022900766</v>
       </c>
       <c r="BB15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>146.03000000000003</v>
       </c>
     </row>
@@ -7525,7 +7542,9 @@
         <v>157</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16"/>
+      <c r="C16">
+        <v>1002</v>
+      </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
@@ -7592,84 +7611,84 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="AB16" s="6">
-        <f t="shared" ref="AB16" si="39">J16-H16</f>
+        <f t="shared" si="31"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" ref="AC16:AC17" si="40">T16-S16</f>
+        <f t="shared" si="32"/>
         <v>0.126</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" ref="AD16:AD48" si="41">AB16-AC16</f>
+        <f t="shared" si="33"/>
         <v>7.7999999999999986E-2</v>
       </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="7">
-        <f t="shared" ref="AF16:AF48" si="42">(1000*28.64*AD16)-AF$8</f>
+        <f t="shared" si="34"/>
         <v>2501.2266666666665</v>
       </c>
       <c r="AG16" s="7">
-        <f t="shared" ref="AG16:AG48" si="43">(1000*28.64*((1.72*AC16)-AB16))-AG$8</f>
+        <f t="shared" si="35"/>
         <v>-109.21386666666643</v>
       </c>
       <c r="AH16" s="7">
-        <f t="shared" ref="AH16:AH48" si="44">1000*28.64*(1.72*(AC16-AC$8)-(AB16-AB$8))</f>
+        <f t="shared" si="36"/>
         <v>-109.21386666666592</v>
       </c>
-      <c r="AJ16" s="8" t="e">
-        <f t="shared" ref="AJ16" si="45">(AF16*D16/1000)/((C16/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK16" s="4" t="e">
-        <f t="shared" ref="AK16" si="46">(AG16*D16/1000)/((C16/1000)*1)</f>
-        <v>#DIV/0!</v>
+      <c r="AJ16" s="8">
+        <f t="shared" si="37"/>
+        <v>14.977405189620757</v>
+      </c>
+      <c r="AK16" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.65397524950099661</v>
       </c>
       <c r="AM16" s="8">
-        <f t="shared" ref="AM16:AM48" si="47">AB16/AC16</f>
+        <f t="shared" si="39"/>
         <v>1.6190476190476188</v>
       </c>
       <c r="AN16" s="8">
-        <f t="shared" ref="AN16:AN48" si="48">(AB16-AB$8)/(AC16-AC$8)</f>
+        <f t="shared" si="40"/>
         <v>1.7528735632183905</v>
       </c>
       <c r="AP16" s="6">
-        <f t="shared" ref="AP16" si="49">O16-H16</f>
+        <f t="shared" si="41"/>
         <v>0.24099999999999999</v>
       </c>
       <c r="AQ16" s="6">
-        <f t="shared" ref="AQ16" si="50">N16-H16</f>
+        <f t="shared" si="42"/>
         <v>0.10099999999999999</v>
       </c>
       <c r="AR16" s="6">
-        <f t="shared" ref="AR16" si="51">K16-H16</f>
+        <f t="shared" si="43"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AT16" s="3">
-        <f t="shared" ref="AT16:AT48" si="52">(1.04*AP16)+(0.79*AR16)-(0.27*AQ16)</f>
+        <f t="shared" si="44"/>
         <v>0.38136999999999999</v>
       </c>
       <c r="AU16" s="3">
-        <f t="shared" ref="AU16:AU48" si="53">(1.02*AR16)-(0.27*AP16)+(0.01*AQ16)</f>
+        <f t="shared" si="45"/>
         <v>0.13994000000000001</v>
       </c>
       <c r="AV16" s="3">
-        <f t="shared" ref="AV16:AV48" si="54">(1.02*AQ16)-(0.08*AP16)-(0.026*AR16)</f>
+        <f t="shared" si="46"/>
         <v>7.8540000000000013E-2</v>
       </c>
       <c r="AX16" s="7">
-        <f t="shared" ref="AX16:AX48" si="55">1000000*AU16/(89.71*1)</f>
+        <f t="shared" si="47"/>
         <v>1559.9152825771932</v>
       </c>
       <c r="AY16" s="7">
-        <f t="shared" ref="AY16:AY48" si="56">1000000*AT16/(112.61*1)</f>
+        <f t="shared" si="48"/>
         <v>3386.6441701447475</v>
       </c>
       <c r="AZ16" s="7">
-        <f t="shared" ref="AZ16:AZ48" si="57">1000000*AV16/(262*1)</f>
+        <f t="shared" si="49"/>
         <v>299.77099236641226</v>
       </c>
       <c r="BB16" s="3">
-        <f t="shared" ref="BB16" si="58">1000*((11.85*(J16-H16))-(1.54*(L16-H16))-(0.08*(M16-H16)))</f>
+        <f t="shared" si="50"/>
         <v>2308.9999999999995</v>
       </c>
     </row>
@@ -7678,7 +7697,9 @@
         <v>158</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17"/>
+      <c r="C17">
+        <v>1090</v>
+      </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
@@ -7744,86 +7765,86 @@
       <c r="Z17">
         <v>0.125</v>
       </c>
-      <c r="AB17" s="6" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="AB17" s="6">
+        <f t="shared" si="31"/>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AC17" s="6">
+        <f t="shared" si="32"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AD17" s="6">
+        <f t="shared" si="33"/>
+        <v>3.2999999999999995E-2</v>
+      </c>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="7">
+        <f t="shared" si="34"/>
+        <v>1212.4266666666665</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" si="35"/>
+        <v>-305.11146666666639</v>
+      </c>
+      <c r="AH17" s="7">
+        <f t="shared" si="36"/>
+        <v>-305.11146666666667</v>
+      </c>
+      <c r="AJ17" s="8">
+        <f t="shared" si="37"/>
+        <v>6.6739082568807326</v>
+      </c>
+      <c r="AK17" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.6795126605504571</v>
+      </c>
+      <c r="AM17" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6111111111111109</v>
+      </c>
+      <c r="AN17" s="8">
         <f t="shared" si="40"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="AD17" s="6" t="e">
+        <v>1.9621212121212122</v>
+      </c>
+      <c r="AP17" s="6">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="7" t="e">
+        <v>0.109</v>
+      </c>
+      <c r="AQ17" s="6">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG17" s="7" t="e">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AR17" s="6">
         <f t="shared" si="43"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH17" s="7" t="e">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AT17" s="3">
         <f t="shared" si="44"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ17" s="8" t="e">
-        <f>(AF17*#REF!/1000)/((C17/1000)*1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK17" s="4" t="e">
-        <f>(AG17*#REF!/1000)/((C17/1000)*1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM17" s="8" t="e">
+        <v>0.16834000000000002</v>
+      </c>
+      <c r="AU17" s="3">
+        <f t="shared" si="45"/>
+        <v>5.8769999999999996E-2</v>
+      </c>
+      <c r="AV17" s="3">
+        <f t="shared" si="46"/>
+        <v>3.8004000000000003E-2</v>
+      </c>
+      <c r="AX17" s="7">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AN17" s="8" t="e">
+        <v>655.11091294170103</v>
+      </c>
+      <c r="AY17" s="7">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AP17" s="6" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ17" s="6" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR17" s="6" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT17" s="3" t="e">
-        <f t="shared" si="52"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU17" s="3" t="e">
-        <f t="shared" si="53"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AV17" s="3" t="e">
-        <f t="shared" si="54"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AX17" s="7" t="e">
-        <f t="shared" si="55"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AY17" s="7" t="e">
-        <f t="shared" si="56"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ17" s="7" t="e">
-        <f t="shared" si="57"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BB17" s="3" t="e">
-        <f>1000*((11.85*(#REF!-#REF!))-(1.54*(#REF!-#REF!))-(0.08*(#REF!-#REF!)))</f>
-        <v>#REF!</v>
+        <v>1494.893881538052</v>
+      </c>
+      <c r="AZ17" s="7">
+        <f t="shared" si="49"/>
+        <v>145.05343511450383</v>
+      </c>
+      <c r="BB17" s="3">
+        <f t="shared" si="50"/>
+        <v>976.90999999999985</v>
       </c>
     </row>
     <row r="18" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -7831,7 +7852,9 @@
         <v>159</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18"/>
+      <c r="C18">
+        <v>1062</v>
+      </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
@@ -7897,29 +7920,96 @@
       <c r="Z18">
         <v>0.107</v>
       </c>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="AB18" s="6">
+        <f t="shared" si="31"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AC18" s="6">
+        <f t="shared" si="32"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="AD18" s="6">
+        <f t="shared" si="33"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AJ18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="7"/>
+      <c r="AF18" s="7">
+        <f t="shared" si="34"/>
+        <v>553.70666666666671</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="35"/>
+        <v>-120.66986666666679</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" si="36"/>
+        <v>-120.66986666666685</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f t="shared" si="37"/>
+        <v>3.1282862523540489</v>
+      </c>
+      <c r="AK18" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.68175065913371069</v>
+      </c>
+      <c r="AM18" s="8">
+        <f t="shared" si="39"/>
+        <v>1.3225806451612905</v>
+      </c>
+      <c r="AN18" s="8">
+        <f t="shared" si="40"/>
+        <v>1.9206349206349207</v>
+      </c>
+      <c r="AP18" s="6">
+        <f t="shared" si="41"/>
+        <v>0.108</v>
+      </c>
+      <c r="AQ18" s="6">
+        <f t="shared" si="42"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AR18" s="6">
+        <f t="shared" si="43"/>
+        <v>0.04</v>
+      </c>
+      <c r="AT18" s="3">
+        <f t="shared" si="44"/>
+        <v>0.13177</v>
+      </c>
+      <c r="AU18" s="3">
+        <f t="shared" si="45"/>
+        <v>1.2090000000000002E-2</v>
+      </c>
+      <c r="AV18" s="3">
+        <f t="shared" si="46"/>
+        <v>3.6219999999999995E-2</v>
+      </c>
+      <c r="AX18" s="7">
+        <f t="shared" si="47"/>
+        <v>134.76758443874709</v>
+      </c>
+      <c r="AY18" s="7">
+        <f t="shared" si="48"/>
+        <v>1170.1447473581386</v>
+      </c>
+      <c r="AZ18" s="7">
+        <f t="shared" si="49"/>
+        <v>138.24427480916029</v>
+      </c>
+      <c r="BB18" s="3">
+        <f t="shared" si="50"/>
+        <v>460.33000000000004</v>
+      </c>
     </row>
     <row r="19" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19"/>
+      <c r="C19">
+        <v>1032</v>
+      </c>
       <c r="D19" s="3">
         <v>6</v>
       </c>
@@ -7986,85 +8076,85 @@
         <v>0.152</v>
       </c>
       <c r="AB19" s="6">
-        <f>J18-H18</f>
-        <v>4.1000000000000002E-2</v>
+        <f t="shared" si="31"/>
+        <v>0.108</v>
       </c>
       <c r="AC19" s="6">
-        <f>T19-S19</f>
+        <f t="shared" si="32"/>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="41"/>
-        <v>-2.5000000000000001E-2</v>
+        <f t="shared" si="33"/>
+        <v>4.1999999999999996E-2</v>
       </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="7">
+        <f t="shared" si="34"/>
+        <v>1470.1866666666665</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="35"/>
+        <v>-315.42186666666635</v>
+      </c>
+      <c r="AH19" s="7">
+        <f t="shared" si="36"/>
+        <v>-315.42186666666669</v>
+      </c>
+      <c r="AJ19" s="8">
+        <f t="shared" si="37"/>
+        <v>8.5475968992248053</v>
+      </c>
+      <c r="AK19" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.833848062015502</v>
+      </c>
+      <c r="AM19" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6363636363636362</v>
+      </c>
+      <c r="AN19" s="8">
+        <f t="shared" si="40"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="AP19" s="6">
+        <f t="shared" si="41"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AQ19" s="6">
         <f t="shared" si="42"/>
-        <v>-448.69333333333333</v>
-      </c>
-      <c r="AG19" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AR19" s="6">
         <f t="shared" si="43"/>
-        <v>1603.4581333333333</v>
-      </c>
-      <c r="AH19" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="AT19" s="3">
         <f t="shared" si="44"/>
-        <v>1603.4581333333335</v>
-      </c>
-      <c r="AJ19" s="8" t="e">
-        <f>(AF19*D18/1000)/((C19/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK19" s="4" t="e">
-        <f>(AG19*D18/1000)/((C19/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM19" s="8">
+        <v>0.20843999999999999</v>
+      </c>
+      <c r="AU19" s="3">
+        <f t="shared" si="45"/>
+        <v>7.2019999999999987E-2</v>
+      </c>
+      <c r="AV19" s="3">
+        <f t="shared" si="46"/>
+        <v>4.9604000000000002E-2</v>
+      </c>
+      <c r="AX19" s="7">
         <f t="shared" si="47"/>
-        <v>0.62121212121212122</v>
-      </c>
-      <c r="AN19" s="8">
+        <v>802.80905138780508</v>
+      </c>
+      <c r="AY19" s="7">
         <f t="shared" si="48"/>
-        <v>0.72023809523809523</v>
-      </c>
-      <c r="AP19" s="6">
-        <f>O18-H18</f>
-        <v>0.108</v>
-      </c>
-      <c r="AQ19" s="6">
-        <f>N18-H18</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AR19" s="6">
-        <f>K18-H18</f>
-        <v>0.04</v>
-      </c>
-      <c r="AT19" s="3">
-        <f t="shared" si="52"/>
-        <v>0.13177</v>
-      </c>
-      <c r="AU19" s="3">
-        <f t="shared" si="53"/>
-        <v>1.2090000000000002E-2</v>
-      </c>
-      <c r="AV19" s="3">
-        <f t="shared" si="54"/>
-        <v>3.6219999999999995E-2</v>
-      </c>
-      <c r="AX19" s="7">
-        <f t="shared" si="55"/>
-        <v>134.76758443874709</v>
-      </c>
-      <c r="AY19" s="7">
-        <f t="shared" si="56"/>
-        <v>1170.1447473581386</v>
+        <v>1850.990142971317</v>
       </c>
       <c r="AZ19" s="7">
-        <f t="shared" si="57"/>
-        <v>138.24427480916029</v>
+        <f t="shared" si="49"/>
+        <v>189.32824427480915</v>
       </c>
       <c r="BB19" s="3">
-        <f>1000*((11.85*(J18-H18))-(1.54*(L18-H18))-(0.08*(M18-H18)))</f>
-        <v>460.33000000000004</v>
+        <f t="shared" si="50"/>
+        <v>1223.74</v>
       </c>
     </row>
     <row r="20" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -8072,7 +8162,9 @@
         <v>161</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20"/>
+      <c r="C20">
+        <v>1050</v>
+      </c>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -8139,85 +8231,85 @@
         <v>0.223</v>
       </c>
       <c r="AB20" s="6">
-        <f>J19-H19</f>
-        <v>0.108</v>
+        <f t="shared" si="31"/>
+        <v>0.157</v>
       </c>
       <c r="AC20" s="6">
-        <f>T20-S20</f>
+        <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
       <c r="AD20" s="6">
-        <f t="shared" si="41"/>
-        <v>7.9999999999999932E-3</v>
+        <f t="shared" si="33"/>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="7">
+        <f t="shared" si="34"/>
+        <v>1899.7866666666664</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="35"/>
+        <v>-43.914666666666335</v>
+      </c>
+      <c r="AH20" s="7">
+        <f t="shared" si="36"/>
+        <v>-43.914666666665802</v>
+      </c>
+      <c r="AJ20" s="8">
+        <f t="shared" si="37"/>
+        <v>10.855923809523807</v>
+      </c>
+      <c r="AK20" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.25094095238095049</v>
+      </c>
+      <c r="AM20" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5699999999999998</v>
+      </c>
+      <c r="AN20" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7370370370370367</v>
+      </c>
+      <c r="AP20" s="6">
+        <f t="shared" si="41"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AQ20" s="6">
         <f t="shared" si="42"/>
-        <v>496.42666666666651</v>
-      </c>
-      <c r="AG20" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="AR20" s="6">
         <f t="shared" si="43"/>
-        <v>1359.4453333333338</v>
-      </c>
-      <c r="AH20" s="7">
+        <v>0.155</v>
+      </c>
+      <c r="AT20" s="3">
         <f t="shared" si="44"/>
-        <v>1359.4453333333338</v>
-      </c>
-      <c r="AJ20" s="8" t="e">
-        <f>(AF20*D19/1000)/((C20/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK20" s="4" t="e">
-        <f>(AG20*D19/1000)/((C20/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM20" s="8">
+        <v>0.31342999999999999</v>
+      </c>
+      <c r="AU20" s="3">
+        <f t="shared" si="45"/>
+        <v>0.10310999999999999</v>
+      </c>
+      <c r="AV20" s="3">
+        <f t="shared" si="46"/>
+        <v>7.1209999999999996E-2</v>
+      </c>
+      <c r="AX20" s="7">
         <f t="shared" si="47"/>
-        <v>1.0799999999999998</v>
-      </c>
-      <c r="AN20" s="8">
+        <v>1149.3701928436074</v>
+      </c>
+      <c r="AY20" s="7">
         <f t="shared" si="48"/>
-        <v>1.1925925925925924</v>
-      </c>
-      <c r="AP20" s="6">
-        <f>O19-H19</f>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="AQ20" s="6">
-        <f>N19-H19</f>
-        <v>6.2E-2</v>
-      </c>
-      <c r="AR20" s="6">
-        <f>K19-H19</f>
-        <v>0.106</v>
-      </c>
-      <c r="AT20" s="3">
-        <f t="shared" si="52"/>
-        <v>0.20843999999999999</v>
-      </c>
-      <c r="AU20" s="3">
-        <f t="shared" si="53"/>
-        <v>7.2019999999999987E-2</v>
-      </c>
-      <c r="AV20" s="3">
-        <f t="shared" si="54"/>
-        <v>4.9604000000000002E-2</v>
-      </c>
-      <c r="AX20" s="7">
-        <f t="shared" si="55"/>
-        <v>802.80905138780508</v>
-      </c>
-      <c r="AY20" s="7">
-        <f t="shared" si="56"/>
-        <v>1850.990142971317</v>
+        <v>2783.3229730929756</v>
       </c>
       <c r="AZ20" s="7">
-        <f t="shared" si="57"/>
-        <v>189.32824427480915</v>
+        <f t="shared" si="49"/>
+        <v>271.79389312977099</v>
       </c>
       <c r="BB20" s="3">
-        <f>1000*((11.85*(J19-H19))-(1.54*(L19-H19))-(0.08*(M19-H19)))</f>
-        <v>1223.74</v>
+        <f t="shared" si="50"/>
+        <v>1769.79</v>
       </c>
     </row>
     <row r="21" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -8225,7 +8317,9 @@
         <v>162</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21"/>
+      <c r="C21">
+        <v>1032</v>
+      </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
@@ -8292,85 +8386,85 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="AB21" s="6">
-        <f>J20-H20</f>
-        <v>0.157</v>
+        <f t="shared" si="31"/>
+        <v>0.218</v>
       </c>
       <c r="AC21" s="6">
-        <f>T21-S21</f>
+        <f t="shared" si="32"/>
         <v>0.14199999999999999</v>
       </c>
       <c r="AD21" s="6">
-        <f t="shared" si="41"/>
-        <v>1.5000000000000013E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="7">
+        <f t="shared" si="34"/>
+        <v>2443.9466666666672</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="35"/>
+        <v>277.99893333333284</v>
+      </c>
+      <c r="AH21" s="7">
+        <f t="shared" si="36"/>
+        <v>277.99893333333262</v>
+      </c>
+      <c r="AJ21" s="8">
+        <f t="shared" si="37"/>
+        <v>14.208992248062019</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" si="38"/>
+        <v>1.6162728682170513</v>
+      </c>
+      <c r="AM21" s="8">
+        <f t="shared" si="39"/>
+        <v>1.535211267605634</v>
+      </c>
+      <c r="AN21" s="8">
+        <f t="shared" si="40"/>
+        <v>1.6464646464646466</v>
+      </c>
+      <c r="AP21" s="6">
+        <f t="shared" si="41"/>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AQ21" s="6">
         <f t="shared" si="42"/>
-        <v>696.90666666666698</v>
-      </c>
-      <c r="AG21" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="AR21" s="6">
         <f t="shared" si="43"/>
-        <v>2025.038933333333</v>
-      </c>
-      <c r="AH21" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="AT21" s="3">
         <f t="shared" si="44"/>
-        <v>2025.0389333333326</v>
-      </c>
-      <c r="AJ21" s="8" t="e">
-        <f>(AF21*D20/1000)/((C21/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK21" s="4" t="e">
-        <f>(AG21*D20/1000)/((C21/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM21" s="8">
+        <v>0.45047000000000004</v>
+      </c>
+      <c r="AU21" s="3">
+        <f t="shared" si="45"/>
+        <v>0.13794999999999999</v>
+      </c>
+      <c r="AV21" s="3">
+        <f t="shared" si="46"/>
+        <v>9.3696000000000002E-2</v>
+      </c>
+      <c r="AX21" s="7">
         <f t="shared" si="47"/>
-        <v>1.1056338028169015</v>
-      </c>
-      <c r="AN21" s="8">
+        <v>1537.7326942369859</v>
+      </c>
+      <c r="AY21" s="7">
         <f t="shared" si="48"/>
-        <v>1.1843434343434345</v>
-      </c>
-      <c r="AP21" s="6">
-        <f>O20-H20</f>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="AQ21" s="6">
-        <f>N20-H20</f>
-        <v>0.09</v>
-      </c>
-      <c r="AR21" s="6">
-        <f>K20-H20</f>
-        <v>0.155</v>
-      </c>
-      <c r="AT21" s="3">
-        <f t="shared" si="52"/>
-        <v>0.31342999999999999</v>
-      </c>
-      <c r="AU21" s="3">
-        <f t="shared" si="53"/>
-        <v>0.10310999999999999</v>
-      </c>
-      <c r="AV21" s="3">
-        <f t="shared" si="54"/>
-        <v>7.1209999999999996E-2</v>
-      </c>
-      <c r="AX21" s="7">
-        <f t="shared" si="55"/>
-        <v>1149.3701928436074</v>
-      </c>
-      <c r="AY21" s="7">
-        <f t="shared" si="56"/>
-        <v>2783.3229730929756</v>
+        <v>4000.266406180624</v>
       </c>
       <c r="AZ21" s="7">
-        <f t="shared" si="57"/>
-        <v>271.79389312977099</v>
+        <f t="shared" si="49"/>
+        <v>357.61832061068702</v>
       </c>
       <c r="BB21" s="3">
-        <f>1000*((11.85*(J20-H20))-(1.54*(L20-H20))-(0.08*(M20-H20)))</f>
-        <v>1769.79</v>
+        <f t="shared" si="50"/>
+        <v>2469.96</v>
       </c>
     </row>
     <row r="22" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -8378,7 +8472,9 @@
         <v>163</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22"/>
+      <c r="C22">
+        <v>1002</v>
+      </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
@@ -8445,85 +8541,85 @@
         <v>6.3E-2</v>
       </c>
       <c r="AB22" s="6">
-        <f>J21-H21</f>
-        <v>0.218</v>
+        <f t="shared" si="31"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AC22" s="6">
-        <f>T22-S22</f>
+        <f t="shared" si="32"/>
         <v>1.6E-2</v>
       </c>
       <c r="AD22" s="6">
-        <f t="shared" si="41"/>
-        <v>0.20200000000000001</v>
+        <f t="shared" si="33"/>
+        <v>5.000000000000001E-3</v>
       </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="7">
+        <f t="shared" si="34"/>
+        <v>410.50666666666666</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="35"/>
+        <v>-286.78186666666676</v>
+      </c>
+      <c r="AH22" s="7">
+        <f t="shared" si="36"/>
+        <v>-286.78186666666676</v>
+      </c>
+      <c r="AJ22" s="8">
+        <f t="shared" si="37"/>
+        <v>2.4581237524950099</v>
+      </c>
+      <c r="AK22" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.7172566866267474</v>
+      </c>
+      <c r="AM22" s="8">
+        <f t="shared" si="39"/>
+        <v>1.3125</v>
+      </c>
+      <c r="AN22" s="8">
+        <f t="shared" si="40"/>
+        <v>3.3888888888888893</v>
+      </c>
+      <c r="AP22" s="6">
+        <f t="shared" si="41"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AQ22" s="6">
         <f t="shared" si="42"/>
-        <v>6052.586666666667</v>
-      </c>
-      <c r="AG22" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AR22" s="6">
         <f t="shared" si="43"/>
-        <v>-5928.8618666666671</v>
-      </c>
-      <c r="AH22" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AT22" s="3">
         <f t="shared" si="44"/>
-        <v>-5928.8618666666662</v>
-      </c>
-      <c r="AJ22" s="8" t="e">
-        <f>(AF22*D21/1000)/((C22/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK22" s="4" t="e">
-        <f>(AG22*D21/1000)/((C22/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM22" s="8">
+        <v>7.5859999999999997E-2</v>
+      </c>
+      <c r="AU22" s="3">
+        <f t="shared" si="45"/>
+        <v>4.4100000000000016E-3</v>
+      </c>
+      <c r="AV22" s="3">
+        <f t="shared" si="46"/>
+        <v>2.1873999999999998E-2</v>
+      </c>
+      <c r="AX22" s="7">
         <f t="shared" si="47"/>
-        <v>13.625</v>
-      </c>
-      <c r="AN22" s="8">
+        <v>49.158399286590146</v>
+      </c>
+      <c r="AY22" s="7">
         <f t="shared" si="48"/>
-        <v>36.222222222222221</v>
-      </c>
-      <c r="AP22" s="6">
-        <f>O21-H21</f>
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="AQ22" s="6">
-        <f>N21-H21</f>
-        <v>0.121</v>
-      </c>
-      <c r="AR22" s="6">
-        <f>K21-H21</f>
-        <v>0.214</v>
-      </c>
-      <c r="AT22" s="3">
-        <f t="shared" si="52"/>
-        <v>0.45047000000000004</v>
-      </c>
-      <c r="AU22" s="3">
-        <f t="shared" si="53"/>
-        <v>0.13794999999999999</v>
-      </c>
-      <c r="AV22" s="3">
-        <f t="shared" si="54"/>
-        <v>9.3696000000000002E-2</v>
-      </c>
-      <c r="AX22" s="7">
-        <f t="shared" si="55"/>
-        <v>1537.7326942369859</v>
-      </c>
-      <c r="AY22" s="7">
-        <f t="shared" si="56"/>
-        <v>4000.266406180624</v>
+        <v>673.65242873634668</v>
       </c>
       <c r="AZ22" s="7">
-        <f t="shared" si="57"/>
-        <v>357.61832061068702</v>
+        <f t="shared" si="49"/>
+        <v>83.48854961832059</v>
       </c>
       <c r="BB22" s="3">
-        <f>1000*((11.85*(J21-H21))-(1.54*(L21-H21))-(0.08*(M21-H21)))</f>
-        <v>2469.96</v>
+        <f t="shared" si="50"/>
+        <v>234.43</v>
       </c>
     </row>
     <row r="23" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -8531,7 +8627,9 @@
         <v>164</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23"/>
+      <c r="C23">
+        <v>1022</v>
+      </c>
       <c r="D23" s="3">
         <v>6</v>
       </c>
@@ -8598,85 +8696,85 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB23" s="6">
-        <f>J22-H22</f>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AC23" s="6">
-        <f>T23-S23</f>
+        <f t="shared" si="32"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD23" s="6">
-        <f t="shared" si="41"/>
-        <v>-4.0000000000000001E-3</v>
+        <f t="shared" si="33"/>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="AE23" s="6"/>
       <c r="AF23" s="7">
+        <f t="shared" si="34"/>
+        <v>610.98666666666657</v>
+      </c>
+      <c r="AG23" s="7">
+        <f t="shared" si="35"/>
+        <v>-301.67466666666655</v>
+      </c>
+      <c r="AH23" s="7">
+        <f t="shared" si="36"/>
+        <v>-301.67466666666655</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f t="shared" si="37"/>
+        <v>3.587005870841486</v>
+      </c>
+      <c r="AK23" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.7710841487279836</v>
+      </c>
+      <c r="AM23" s="8">
+        <f t="shared" si="39"/>
+        <v>1.4799999999999998</v>
+      </c>
+      <c r="AN23" s="8">
+        <f t="shared" si="40"/>
+        <v>2.4222222222222216</v>
+      </c>
+      <c r="AP23" s="6">
+        <f t="shared" si="41"/>
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="AQ23" s="6">
         <f t="shared" si="42"/>
-        <v>152.74666666666667</v>
-      </c>
-      <c r="AG23" s="7">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="AR23" s="6">
         <f t="shared" si="43"/>
-        <v>156.56533333333334</v>
-      </c>
-      <c r="AH23" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AT23" s="3">
         <f t="shared" si="44"/>
-        <v>156.56533333333329</v>
-      </c>
-      <c r="AJ23" s="8" t="e">
-        <f>(AF23*D22/1000)/((C23/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK23" s="4" t="e">
-        <f>(AG23*D22/1000)/((C23/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM23" s="8">
+        <v>9.214E-2</v>
+      </c>
+      <c r="AU23" s="3">
+        <f t="shared" si="45"/>
+        <v>1.8619999999999998E-2</v>
+      </c>
+      <c r="AV23" s="3">
+        <f t="shared" si="46"/>
+        <v>2.0144000000000002E-2</v>
+      </c>
+      <c r="AX23" s="7">
         <f t="shared" si="47"/>
-        <v>0.84</v>
-      </c>
-      <c r="AN23" s="8">
+        <v>207.55768587671383</v>
+      </c>
+      <c r="AY23" s="7">
         <f t="shared" si="48"/>
-        <v>1.3555555555555556</v>
-      </c>
-      <c r="AP23" s="6">
-        <f>O22-H22</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="AQ23" s="6">
-        <f>N22-H22</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="AR23" s="6">
-        <f>K22-H22</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="AT23" s="3">
-        <f t="shared" si="52"/>
-        <v>7.5859999999999997E-2</v>
-      </c>
-      <c r="AU23" s="3">
-        <f t="shared" si="53"/>
-        <v>4.4100000000000016E-3</v>
-      </c>
-      <c r="AV23" s="3">
-        <f t="shared" si="54"/>
-        <v>2.1873999999999998E-2</v>
-      </c>
-      <c r="AX23" s="7">
-        <f t="shared" si="55"/>
-        <v>49.158399286590146</v>
-      </c>
-      <c r="AY23" s="7">
-        <f t="shared" si="56"/>
-        <v>673.65242873634668</v>
+        <v>818.2221827546399</v>
       </c>
       <c r="AZ23" s="7">
-        <f t="shared" si="57"/>
-        <v>83.48854961832059</v>
+        <f t="shared" si="49"/>
+        <v>76.885496183206115</v>
       </c>
       <c r="BB23" s="3">
-        <f>1000*((11.85*(J22-H22))-(1.54*(L22-H22))-(0.08*(M22-H22)))</f>
-        <v>234.43</v>
+        <f t="shared" si="50"/>
+        <v>416.08999999999992</v>
       </c>
     </row>
     <row r="24" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -8684,7 +8782,9 @@
         <v>165</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24"/>
+      <c r="C24">
+        <v>1088</v>
+      </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
@@ -8751,85 +8851,85 @@
         <v>0.216</v>
       </c>
       <c r="AB24" s="6">
-        <f>J23-H23</f>
-        <v>3.6999999999999998E-2</v>
+        <f t="shared" si="31"/>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AC24" s="6">
-        <f>T24-S24</f>
+        <f t="shared" si="32"/>
         <v>0.105</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" si="41"/>
-        <v>-6.8000000000000005E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.1000000000000013E-2</v>
       </c>
       <c r="AE24" s="6"/>
       <c r="AF24" s="7">
+        <f t="shared" si="34"/>
+        <v>2014.346666666667</v>
+      </c>
+      <c r="AG24" s="7">
+        <f t="shared" si="35"/>
+        <v>-55.370666666667432</v>
+      </c>
+      <c r="AH24" s="7">
+        <f t="shared" si="36"/>
+        <v>-55.370666666666928</v>
+      </c>
+      <c r="AJ24" s="8">
+        <f t="shared" si="37"/>
+        <v>11.108529411764707</v>
+      </c>
+      <c r="AK24" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.30535294117647477</v>
+      </c>
+      <c r="AM24" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5809523809523811</v>
+      </c>
+      <c r="AN24" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7403508771929823</v>
+      </c>
+      <c r="AP24" s="6">
+        <f t="shared" si="41"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AQ24" s="6">
         <f t="shared" si="42"/>
-        <v>-1680.2133333333336</v>
-      </c>
-      <c r="AG24" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AR24" s="6">
         <f t="shared" si="43"/>
-        <v>3639.1893333333328</v>
-      </c>
-      <c r="AH24" s="7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AT24" s="3">
         <f t="shared" si="44"/>
-        <v>3639.1893333333333</v>
-      </c>
-      <c r="AJ24" s="8" t="e">
-        <f>(AF24*D23/1000)/((C24/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK24" s="4" t="e">
-        <f>(AG24*D23/1000)/((C24/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM24" s="8">
+        <v>0.31126000000000004</v>
+      </c>
+      <c r="AU24" s="3">
+        <f t="shared" si="45"/>
+        <v>0.11518</v>
+      </c>
+      <c r="AV24" s="3">
+        <f t="shared" si="46"/>
+        <v>6.3696000000000003E-2</v>
+      </c>
+      <c r="AX24" s="7">
         <f t="shared" si="47"/>
-        <v>0.35238095238095235</v>
-      </c>
-      <c r="AN24" s="8">
+        <v>1283.9148366960205</v>
+      </c>
+      <c r="AY24" s="7">
         <f t="shared" si="48"/>
-        <v>0.38245614035087716</v>
-      </c>
-      <c r="AP24" s="6">
-        <f>O23-H23</f>
-        <v>6.7999999999999991E-2</v>
-      </c>
-      <c r="AQ24" s="6">
-        <f>N23-H23</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AR24" s="6">
-        <f>K23-H23</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="AT24" s="3">
-        <f t="shared" si="52"/>
-        <v>9.214E-2</v>
-      </c>
-      <c r="AU24" s="3">
-        <f t="shared" si="53"/>
-        <v>1.8619999999999998E-2</v>
-      </c>
-      <c r="AV24" s="3">
-        <f t="shared" si="54"/>
-        <v>2.0144000000000002E-2</v>
-      </c>
-      <c r="AX24" s="7">
-        <f t="shared" si="55"/>
-        <v>207.55768587671383</v>
-      </c>
-      <c r="AY24" s="7">
-        <f t="shared" si="56"/>
-        <v>818.2221827546399</v>
+        <v>2764.0529260278845</v>
       </c>
       <c r="AZ24" s="7">
-        <f t="shared" si="57"/>
-        <v>76.885496183206115</v>
+        <f t="shared" si="49"/>
+        <v>243.1145038167939</v>
       </c>
       <c r="BB24" s="3">
-        <f>1000*((11.85*(J23-H23))-(1.54*(L23-H23))-(0.08*(M23-H23)))</f>
-        <v>416.08999999999992</v>
+        <f t="shared" si="50"/>
+        <v>1867.12</v>
       </c>
     </row>
     <row r="25" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -8837,7 +8937,9 @@
         <v>166</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25"/>
+      <c r="C25">
+        <v>1062</v>
+      </c>
       <c r="D25" s="3">
         <v>6</v>
       </c>
@@ -8904,85 +9006,85 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="AB25" s="6">
-        <f>J24-H24</f>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="AC25" s="6" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD25" s="6" t="e">
+        <f t="shared" si="31"/>
+        <v>0.193</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="32"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AD25" s="6">
+        <f t="shared" si="33"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="7">
+        <f t="shared" si="34"/>
+        <v>2415.3066666666673</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="35"/>
+        <v>-188.26026666666758</v>
+      </c>
+      <c r="AH25" s="7">
+        <f t="shared" si="36"/>
+        <v>-188.26026666666627</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="37"/>
+        <v>13.645800376647836</v>
+      </c>
+      <c r="AK25" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.0636173258003818</v>
+      </c>
+      <c r="AM25" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6355932203389831</v>
+      </c>
+      <c r="AN25" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7808641975308641</v>
+      </c>
+      <c r="AP25" s="6">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="7" t="e">
+        <v>0.24</v>
+      </c>
+      <c r="AQ25" s="6">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG25" s="7" t="e">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AR25" s="6">
         <f t="shared" si="43"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH25" s="7" t="e">
+        <v>0.19</v>
+      </c>
+      <c r="AT25" s="3">
         <f t="shared" si="44"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ25" s="8" t="e">
-        <f>(AF25*D24/1000)/((C25/1000)*1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK25" s="4" t="e">
-        <f>(AG25*D24/1000)/((C25/1000)*1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM25" s="8" t="e">
+        <v>0.36810999999999999</v>
+      </c>
+      <c r="AU25" s="3">
+        <f t="shared" si="45"/>
+        <v>0.13017000000000001</v>
+      </c>
+      <c r="AV25" s="3">
+        <f t="shared" si="46"/>
+        <v>9.5200000000000021E-2</v>
+      </c>
+      <c r="AX25" s="7">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AN25" s="8" t="e">
+        <v>1451.0088061531605</v>
+      </c>
+      <c r="AY25" s="7">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AP25" s="6">
-        <f>O24-H24</f>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="AQ25" s="6">
-        <f>N24-H24</f>
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="AR25" s="6">
-        <f>K24-H24</f>
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="AT25" s="3">
-        <f t="shared" si="52"/>
-        <v>0.31126000000000004</v>
-      </c>
-      <c r="AU25" s="3">
-        <f t="shared" si="53"/>
-        <v>0.11518</v>
-      </c>
-      <c r="AV25" s="3">
-        <f t="shared" si="54"/>
-        <v>6.3696000000000003E-2</v>
-      </c>
-      <c r="AX25" s="7">
-        <f t="shared" si="55"/>
-        <v>1283.9148366960205</v>
-      </c>
-      <c r="AY25" s="7">
-        <f t="shared" si="56"/>
-        <v>2764.0529260278845</v>
+        <v>3268.8926383092089</v>
       </c>
       <c r="AZ25" s="7">
-        <f t="shared" si="57"/>
-        <v>243.1145038167939</v>
+        <f t="shared" si="49"/>
+        <v>363.35877862595424</v>
       </c>
       <c r="BB25" s="3">
-        <f>1000*((11.85*(J24-H24))-(1.54*(L24-H24))-(0.08*(M24-H24)))</f>
-        <v>1867.12</v>
+        <f t="shared" si="50"/>
+        <v>2189.59</v>
       </c>
     </row>
     <row r="26" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -9057,85 +9159,85 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AB26" s="6">
-        <f>J25-H25</f>
-        <v>0.193</v>
+        <f t="shared" si="31"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AC26" s="6">
-        <f>T25-S25</f>
-        <v>0.11799999999999999</v>
+        <f t="shared" si="32"/>
+        <v>1.6E-2</v>
       </c>
       <c r="AD26" s="6">
-        <f t="shared" si="41"/>
-        <v>7.5000000000000011E-2</v>
+        <f t="shared" si="33"/>
+        <v>5.9999999999999984E-3</v>
       </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="7">
+        <f t="shared" si="34"/>
+        <v>439.14666666666665</v>
+      </c>
+      <c r="AG26" s="7">
+        <f t="shared" si="35"/>
+        <v>-315.42186666666669</v>
+      </c>
+      <c r="AH26" s="7">
+        <f t="shared" si="36"/>
+        <v>-315.42186666666669</v>
+      </c>
+      <c r="AJ26" s="8" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK26" s="4" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM26" s="8">
+        <f t="shared" si="39"/>
+        <v>1.375</v>
+      </c>
+      <c r="AN26" s="8">
+        <f t="shared" si="40"/>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="AP26" s="6">
+        <f t="shared" si="41"/>
+        <v>6.699999999999999E-2</v>
+      </c>
+      <c r="AQ26" s="6">
         <f t="shared" si="42"/>
-        <v>2415.3066666666673</v>
-      </c>
-      <c r="AG26" s="7">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AR26" s="6">
         <f t="shared" si="43"/>
-        <v>-188.26026666666758</v>
-      </c>
-      <c r="AH26" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AT26" s="3">
         <f t="shared" si="44"/>
-        <v>-188.26026666666627</v>
-      </c>
-      <c r="AJ26" s="8" t="e">
-        <f>(AF26*D25/1000)/((C26/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK26" s="4" t="e">
-        <f>(AG26*D25/1000)/((C26/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM26" s="8">
+        <v>8.029E-2</v>
+      </c>
+      <c r="AU26" s="3">
+        <f t="shared" si="45"/>
+        <v>5.6500000000000031E-3</v>
+      </c>
+      <c r="AV26" s="3">
+        <f t="shared" si="46"/>
+        <v>2.2602000000000001E-2</v>
+      </c>
+      <c r="AX26" s="7">
         <f t="shared" si="47"/>
-        <v>1.6355932203389831</v>
-      </c>
-      <c r="AN26" s="8">
+        <v>62.980715639282167</v>
+      </c>
+      <c r="AY26" s="7">
         <f t="shared" si="48"/>
-        <v>1.7808641975308641</v>
-      </c>
-      <c r="AP26" s="6">
-        <f>O25-H25</f>
-        <v>0.24</v>
-      </c>
-      <c r="AQ26" s="6">
-        <f>N25-H25</f>
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AR26" s="6">
-        <f>K25-H25</f>
-        <v>0.19</v>
-      </c>
-      <c r="AT26" s="3">
-        <f t="shared" si="52"/>
-        <v>0.36810999999999999</v>
-      </c>
-      <c r="AU26" s="3">
-        <f t="shared" si="53"/>
-        <v>0.13017000000000001</v>
-      </c>
-      <c r="AV26" s="3">
-        <f t="shared" si="54"/>
-        <v>9.5200000000000021E-2</v>
-      </c>
-      <c r="AX26" s="7">
-        <f t="shared" si="55"/>
-        <v>1451.0088061531605</v>
-      </c>
-      <c r="AY26" s="7">
-        <f t="shared" si="56"/>
-        <v>3268.8926383092089</v>
+        <v>712.99174140840069</v>
       </c>
       <c r="AZ26" s="7">
-        <f t="shared" si="57"/>
-        <v>363.35877862595424</v>
+        <f t="shared" si="49"/>
+        <v>86.267175572519079</v>
       </c>
       <c r="BB26" s="3">
-        <f>1000*((11.85*(J25-H25))-(1.54*(L25-H25))-(0.08*(M25-H25)))</f>
-        <v>2189.59</v>
+        <f t="shared" si="50"/>
+        <v>244.73999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -9143,7 +9245,9 @@
         <v>168</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27"/>
+      <c r="C27">
+        <v>1034</v>
+      </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
@@ -9210,85 +9314,85 @@
         <v>0.06</v>
       </c>
       <c r="AB27" s="6">
-        <f>J26-H26</f>
-        <v>2.1999999999999999E-2</v>
+        <f t="shared" si="31"/>
+        <v>1.9E-2</v>
       </c>
       <c r="AC27" s="6">
-        <f>T26-S26</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="32"/>
+        <v>1.2E-2</v>
       </c>
       <c r="AD27" s="6">
-        <f t="shared" si="41"/>
-        <v>5.9999999999999984E-3</v>
+        <f t="shared" si="33"/>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AE27" s="6"/>
       <c r="AF27" s="7">
+        <f t="shared" si="34"/>
+        <v>467.78666666666663</v>
+      </c>
+      <c r="AG27" s="7">
+        <f t="shared" si="35"/>
+        <v>-426.54506666666674</v>
+      </c>
+      <c r="AH27" s="7">
+        <f t="shared" si="36"/>
+        <v>-426.54506666666668</v>
+      </c>
+      <c r="AJ27" s="8">
+        <f t="shared" si="37"/>
+        <v>2.7144294003868472</v>
+      </c>
+      <c r="AK27" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.4751164410058029</v>
+      </c>
+      <c r="AM27" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="AN27" s="8">
+        <f t="shared" si="40"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="AP27" s="6">
+        <f t="shared" si="41"/>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="AQ27" s="6">
         <f t="shared" si="42"/>
-        <v>439.14666666666665</v>
-      </c>
-      <c r="AG27" s="7">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="AR27" s="6">
         <f t="shared" si="43"/>
-        <v>-315.42186666666669</v>
-      </c>
-      <c r="AH27" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AT27" s="3">
         <f t="shared" si="44"/>
-        <v>-315.42186666666669</v>
-      </c>
-      <c r="AJ27" s="8" t="e">
-        <f>(AF27*D26/1000)/((C27/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK27" s="4" t="e">
-        <f>(AG27*D26/1000)/((C27/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM27" s="8">
+        <v>8.3990000000000009E-2</v>
+      </c>
+      <c r="AU27" s="3">
+        <f t="shared" si="45"/>
+        <v>3.8999999999999842E-4</v>
+      </c>
+      <c r="AV27" s="3">
+        <f t="shared" si="46"/>
+        <v>1.2186000000000001E-2</v>
+      </c>
+      <c r="AX27" s="7">
         <f t="shared" si="47"/>
-        <v>1.375</v>
-      </c>
-      <c r="AN27" s="8">
+        <v>4.3473414335079523</v>
+      </c>
+      <c r="AY27" s="7">
         <f t="shared" si="48"/>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="AP27" s="6">
-        <f>O26-H26</f>
-        <v>6.699999999999999E-2</v>
-      </c>
-      <c r="AQ27" s="6">
-        <f>N26-H26</f>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AR27" s="6">
-        <f>K26-H26</f>
-        <v>2.3E-2</v>
-      </c>
-      <c r="AT27" s="3">
-        <f t="shared" si="52"/>
-        <v>8.029E-2</v>
-      </c>
-      <c r="AU27" s="3">
-        <f t="shared" si="53"/>
-        <v>5.6500000000000031E-3</v>
-      </c>
-      <c r="AV27" s="3">
-        <f t="shared" si="54"/>
-        <v>2.2602000000000001E-2</v>
-      </c>
-      <c r="AX27" s="7">
-        <f t="shared" si="55"/>
-        <v>62.980715639282167</v>
-      </c>
-      <c r="AY27" s="7">
-        <f t="shared" si="56"/>
-        <v>712.99174140840069</v>
+        <v>745.84850368528566</v>
       </c>
       <c r="AZ27" s="7">
-        <f t="shared" si="57"/>
-        <v>86.267175572519079</v>
+        <f t="shared" si="49"/>
+        <v>46.511450381679388</v>
       </c>
       <c r="BB27" s="3">
-        <f>1000*((11.85*(J26-H26))-(1.54*(L26-H26))-(0.08*(M26-H26)))</f>
-        <v>244.73999999999998</v>
+        <f t="shared" si="50"/>
+        <v>212.35</v>
       </c>
     </row>
     <row r="28" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -9296,7 +9400,9 @@
         <v>169</v>
       </c>
       <c r="B28" s="9"/>
-      <c r="C28"/>
+      <c r="C28">
+        <v>1092</v>
+      </c>
       <c r="D28" s="3">
         <v>6</v>
       </c>
@@ -9363,85 +9469,85 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="AB28" s="6">
-        <f>J27-H27</f>
-        <v>1.9E-2</v>
+        <f t="shared" si="31"/>
+        <v>0.249</v>
       </c>
       <c r="AC28" s="6">
-        <f>T27-S27</f>
-        <v>1.2E-2</v>
+        <f t="shared" si="32"/>
+        <v>0.151</v>
       </c>
       <c r="AD28" s="6">
-        <f t="shared" si="41"/>
-        <v>6.9999999999999993E-3</v>
+        <f t="shared" si="33"/>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="7">
+        <f t="shared" si="34"/>
+        <v>3074.0266666666671</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="35"/>
+        <v>-166.49386666666646</v>
+      </c>
+      <c r="AH28" s="7">
+        <f t="shared" si="36"/>
+        <v>-166.49386666666678</v>
+      </c>
+      <c r="AJ28" s="8">
+        <f t="shared" si="37"/>
+        <v>16.890256410256413</v>
+      </c>
+      <c r="AK28" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.9148014652014641</v>
+      </c>
+      <c r="AM28" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6490066225165563</v>
+      </c>
+      <c r="AN28" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7612293144208038</v>
+      </c>
+      <c r="AP28" s="6">
+        <f t="shared" si="41"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AQ28" s="6">
         <f t="shared" si="42"/>
-        <v>467.78666666666663</v>
-      </c>
-      <c r="AG28" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AR28" s="6">
         <f t="shared" si="43"/>
-        <v>-426.54506666666674</v>
-      </c>
-      <c r="AH28" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="AT28" s="3">
         <f t="shared" si="44"/>
-        <v>-426.54506666666668</v>
-      </c>
-      <c r="AJ28" s="8" t="e">
-        <f>(AF28*D27/1000)/((C28/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK28" s="4" t="e">
-        <f>(AG28*D27/1000)/((C28/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM28" s="8">
+        <v>0.46043000000000001</v>
+      </c>
+      <c r="AU28" s="3">
+        <f t="shared" si="45"/>
+        <v>0.17196</v>
+      </c>
+      <c r="AV28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.11698999999999998</v>
+      </c>
+      <c r="AX28" s="7">
         <f t="shared" si="47"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="AN28" s="8">
+        <v>1916.8431612975144</v>
+      </c>
+      <c r="AY28" s="7">
         <f t="shared" si="48"/>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="AP28" s="6">
-        <f>O27-H27</f>
-        <v>7.1000000000000008E-2</v>
-      </c>
-      <c r="AQ28" s="6">
-        <f>N27-H27</f>
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="AR28" s="6">
-        <f>K27-H27</f>
-        <v>1.9E-2</v>
-      </c>
-      <c r="AT28" s="3">
-        <f t="shared" si="52"/>
-        <v>8.3990000000000009E-2</v>
-      </c>
-      <c r="AU28" s="3">
-        <f t="shared" si="53"/>
-        <v>3.8999999999999842E-4</v>
-      </c>
-      <c r="AV28" s="3">
-        <f t="shared" si="54"/>
-        <v>1.2186000000000001E-2</v>
-      </c>
-      <c r="AX28" s="7">
-        <f t="shared" si="55"/>
-        <v>4.3473414335079523</v>
-      </c>
-      <c r="AY28" s="7">
-        <f t="shared" si="56"/>
-        <v>745.84850368528566</v>
+        <v>4088.7132581475889</v>
       </c>
       <c r="AZ28" s="7">
-        <f t="shared" si="57"/>
-        <v>46.511450381679388</v>
+        <f t="shared" si="49"/>
+        <v>446.52671755725186</v>
       </c>
       <c r="BB28" s="3">
-        <f>1000*((11.85*(J27-H27))-(1.54*(L27-H27))-(0.08*(M27-H27)))</f>
-        <v>212.35</v>
+        <f t="shared" si="50"/>
+        <v>2829.05</v>
       </c>
     </row>
     <row r="29" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -9449,7 +9555,9 @@
         <v>170</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29"/>
+      <c r="C29">
+        <v>1032</v>
+      </c>
       <c r="D29" s="3">
         <v>6</v>
       </c>
@@ -9516,85 +9624,85 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="AB29" s="6">
-        <f>J28-H28</f>
-        <v>0.249</v>
+        <f t="shared" si="31"/>
+        <v>3.9E-2</v>
       </c>
       <c r="AC29" s="6">
-        <f>T28-S28</f>
-        <v>0.151</v>
+        <f t="shared" si="32"/>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="AD29" s="6">
-        <f t="shared" si="41"/>
-        <v>9.8000000000000004E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="AE29" s="6"/>
       <c r="AF29" s="7">
+        <f t="shared" si="34"/>
+        <v>582.34666666666681</v>
+      </c>
+      <c r="AG29" s="7">
+        <f t="shared" si="35"/>
+        <v>-211.17226666666687</v>
+      </c>
+      <c r="AH29" s="7">
+        <f t="shared" si="36"/>
+        <v>-211.17226666666684</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" si="37"/>
+        <v>3.3857364341085279</v>
+      </c>
+      <c r="AK29" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.2277457364341096</v>
+      </c>
+      <c r="AM29" s="8">
+        <f t="shared" si="39"/>
+        <v>1.392857142857143</v>
+      </c>
+      <c r="AN29" s="8">
+        <f t="shared" si="40"/>
+        <v>2.1296296296296302</v>
+      </c>
+      <c r="AP29" s="6">
+        <f t="shared" si="41"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AQ29" s="6">
         <f t="shared" si="42"/>
-        <v>3074.0266666666671</v>
-      </c>
-      <c r="AG29" s="7">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="AR29" s="6">
         <f t="shared" si="43"/>
-        <v>-166.49386666666646</v>
-      </c>
-      <c r="AH29" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AT29" s="3">
         <f t="shared" si="44"/>
-        <v>-166.49386666666678</v>
-      </c>
-      <c r="AJ29" s="8" t="e">
-        <f>(AF29*D28/1000)/((C29/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK29" s="4" t="e">
-        <f>(AG29*D28/1000)/((C29/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM29" s="8">
+        <v>0.10046000000000001</v>
+      </c>
+      <c r="AU29" s="3">
+        <f t="shared" si="45"/>
+        <v>1.8790000000000001E-2</v>
+      </c>
+      <c r="AV29" s="3">
+        <f t="shared" si="46"/>
+        <v>2.1571999999999997E-2</v>
+      </c>
+      <c r="AX29" s="7">
         <f t="shared" si="47"/>
-        <v>1.6490066225165563</v>
-      </c>
-      <c r="AN29" s="8">
+        <v>209.45268086055069</v>
+      </c>
+      <c r="AY29" s="7">
         <f t="shared" si="48"/>
-        <v>1.7612293144208038</v>
-      </c>
-      <c r="AP29" s="6">
-        <f>O28-H28</f>
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="AQ29" s="6">
-        <f>N28-H28</f>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AR29" s="6">
-        <f>K28-H28</f>
-        <v>0.245</v>
-      </c>
-      <c r="AT29" s="3">
-        <f t="shared" si="52"/>
-        <v>0.46043000000000001</v>
-      </c>
-      <c r="AU29" s="3">
-        <f t="shared" si="53"/>
-        <v>0.17196</v>
-      </c>
-      <c r="AV29" s="3">
-        <f t="shared" si="54"/>
-        <v>0.11698999999999998</v>
-      </c>
-      <c r="AX29" s="7">
-        <f t="shared" si="55"/>
-        <v>1916.8431612975144</v>
-      </c>
-      <c r="AY29" s="7">
-        <f t="shared" si="56"/>
-        <v>4088.7132581475889</v>
+        <v>892.10549684752698</v>
       </c>
       <c r="AZ29" s="7">
-        <f t="shared" si="57"/>
-        <v>446.52671755725186</v>
+        <f t="shared" si="49"/>
+        <v>82.33587786259541</v>
       </c>
       <c r="BB29" s="3">
-        <f>1000*((11.85*(J28-H28))-(1.54*(L28-H28))-(0.08*(M28-H28)))</f>
-        <v>2829.05</v>
+        <f t="shared" si="50"/>
+        <v>441.49000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -9602,7 +9710,9 @@
         <v>171</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30"/>
+      <c r="C30">
+        <v>1068</v>
+      </c>
       <c r="D30" s="3">
         <v>6</v>
       </c>
@@ -9669,85 +9779,85 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="AB30" s="6">
-        <f>J29-H29</f>
-        <v>3.9E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="AC30" s="6">
-        <f>T29-S29</f>
-        <v>2.7999999999999997E-2</v>
+        <f t="shared" si="32"/>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="AD30" s="6">
-        <f t="shared" si="41"/>
-        <v>1.1000000000000003E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.0000000000000062E-3</v>
       </c>
       <c r="AE30" s="6"/>
       <c r="AF30" s="7">
+        <f t="shared" si="34"/>
+        <v>467.78666666666686</v>
+      </c>
+      <c r="AG30" s="7">
+        <f t="shared" si="35"/>
+        <v>-261.578666666667</v>
+      </c>
+      <c r="AH30" s="7">
+        <f t="shared" si="36"/>
+        <v>-261.57866666666695</v>
+      </c>
+      <c r="AJ30" s="8">
+        <f t="shared" si="37"/>
+        <v>2.628014981273409</v>
+      </c>
+      <c r="AK30" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.4695430711610504</v>
+      </c>
+      <c r="AM30" s="8">
+        <f t="shared" si="39"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="AN30" s="8">
+        <f t="shared" si="40"/>
+        <v>2.6333333333333346</v>
+      </c>
+      <c r="AP30" s="6">
+        <f t="shared" si="41"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AQ30" s="6">
         <f t="shared" si="42"/>
-        <v>582.34666666666681</v>
-      </c>
-      <c r="AG30" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AR30" s="6">
         <f t="shared" si="43"/>
-        <v>-211.17226666666687</v>
-      </c>
-      <c r="AH30" s="7">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="AT30" s="3">
         <f t="shared" si="44"/>
-        <v>-211.17226666666684</v>
-      </c>
-      <c r="AJ30" s="8" t="e">
-        <f>(AF30*D29/1000)/((C30/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" s="4" t="e">
-        <f>(AG30*D29/1000)/((C30/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM30" s="8">
+        <v>7.596E-2</v>
+      </c>
+      <c r="AU30" s="3">
+        <f t="shared" si="45"/>
+        <v>1.0810000000000002E-2</v>
+      </c>
+      <c r="AV30" s="3">
+        <f t="shared" si="46"/>
+        <v>1.7044E-2</v>
+      </c>
+      <c r="AX30" s="7">
         <f t="shared" si="47"/>
-        <v>1.392857142857143</v>
-      </c>
-      <c r="AN30" s="8">
+        <v>120.49938691338761</v>
+      </c>
+      <c r="AY30" s="7">
         <f t="shared" si="48"/>
-        <v>2.1296296296296302</v>
-      </c>
-      <c r="AP30" s="6">
-        <f>O29-H29</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AQ30" s="6">
-        <f>N29-H29</f>
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="AR30" s="6">
-        <f>K29-H29</f>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="AT30" s="3">
-        <f t="shared" si="52"/>
-        <v>0.10046000000000001</v>
-      </c>
-      <c r="AU30" s="3">
-        <f t="shared" si="53"/>
-        <v>1.8790000000000001E-2</v>
-      </c>
-      <c r="AV30" s="3">
-        <f t="shared" si="54"/>
-        <v>2.1571999999999997E-2</v>
-      </c>
-      <c r="AX30" s="7">
-        <f t="shared" si="55"/>
-        <v>209.45268086055069</v>
-      </c>
-      <c r="AY30" s="7">
-        <f t="shared" si="56"/>
-        <v>892.10549684752698</v>
+        <v>674.54044933842465</v>
       </c>
       <c r="AZ30" s="7">
-        <f t="shared" si="57"/>
-        <v>82.33587786259541</v>
+        <f t="shared" si="49"/>
+        <v>65.053435114503813</v>
       </c>
       <c r="BB30" s="3">
-        <f>1000*((11.85*(J29-H29))-(1.54*(L29-H29))-(0.08*(M29-H29)))</f>
-        <v>441.49000000000007</v>
+        <f t="shared" si="50"/>
+        <v>305.61000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
@@ -9755,7 +9865,9 @@
         <v>172</v>
       </c>
       <c r="B31" s="9"/>
-      <c r="C31"/>
+      <c r="C31">
+        <v>1110</v>
+      </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
@@ -9818,91 +9930,94 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="AB31" s="6">
-        <f>J30-H30</f>
-        <v>2.7000000000000003E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC31" s="6">
-        <f>T30-S30</f>
-        <v>1.9999999999999997E-2</v>
+        <f t="shared" si="32"/>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD31" s="6">
-        <f t="shared" si="41"/>
-        <v>7.0000000000000062E-3</v>
+        <f t="shared" si="33"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE31" s="6"/>
       <c r="AF31" s="7">
+        <f t="shared" si="34"/>
+        <v>496.42666666666668</v>
+      </c>
+      <c r="AG31" s="7">
+        <f t="shared" si="35"/>
+        <v>-331.46026666666671</v>
+      </c>
+      <c r="AH31" s="7">
+        <f t="shared" si="36"/>
+        <v>-331.46026666666671</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f t="shared" si="37"/>
+        <v>2.6833873873873872</v>
+      </c>
+      <c r="AK31" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.7916771171171173</v>
+      </c>
+      <c r="AM31" s="8">
+        <f t="shared" si="39"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="AN31" s="8">
+        <f t="shared" si="40"/>
+        <v>3.1666666666666674</v>
+      </c>
+      <c r="AP31" s="6">
+        <f t="shared" si="41"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AQ31" s="6">
         <f t="shared" si="42"/>
-        <v>467.78666666666686</v>
-      </c>
-      <c r="AG31" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AR31" s="6">
         <f t="shared" si="43"/>
-        <v>-261.578666666667</v>
-      </c>
-      <c r="AH31" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AT31" s="3">
         <f t="shared" si="44"/>
-        <v>-261.57866666666695</v>
-      </c>
-      <c r="AJ31" s="8" t="e">
-        <f>(AF31*D30/1000)/((C31/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK31" s="4" t="e">
-        <f>(AG31*D30/1000)/((C31/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM31" s="8">
+        <v>6.2730000000000008E-2</v>
+      </c>
+      <c r="AU31" s="3">
+        <f t="shared" si="45"/>
+        <v>1.3260000000000001E-2</v>
+      </c>
+      <c r="AV31" s="3">
+        <f t="shared" si="46"/>
+        <v>1.4029999999999999E-2</v>
+      </c>
+      <c r="AX31" s="7">
         <f t="shared" si="47"/>
-        <v>1.3500000000000003</v>
-      </c>
-      <c r="AN31" s="8">
+        <v>147.80960873927103</v>
+      </c>
+      <c r="AY31" s="7">
         <f t="shared" si="48"/>
-        <v>2.6333333333333346</v>
-      </c>
-      <c r="AP31" s="6">
-        <f>O30-H30</f>
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AQ31" s="6">
-        <f>N30-H30</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="AR31" s="6">
-        <f>K30-H30</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="AT31" s="3">
-        <f t="shared" si="52"/>
-        <v>7.596E-2</v>
-      </c>
-      <c r="AU31" s="3">
-        <f t="shared" si="53"/>
-        <v>1.0810000000000002E-2</v>
-      </c>
-      <c r="AV31" s="3">
-        <f t="shared" si="54"/>
-        <v>1.7044E-2</v>
-      </c>
-      <c r="AX31" s="7">
-        <f t="shared" si="55"/>
-        <v>120.49938691338761</v>
-      </c>
-      <c r="AY31" s="7">
-        <f t="shared" si="56"/>
-        <v>674.54044933842465</v>
+        <v>557.05532368350953</v>
       </c>
       <c r="AZ31" s="7">
-        <f t="shared" si="57"/>
-        <v>65.053435114503813</v>
+        <f t="shared" si="49"/>
+        <v>53.549618320610683</v>
       </c>
       <c r="BB31" s="3">
-        <f>1000*((11.85*(J30-H30))-(1.54*(L30-H30))-(0.08*(M30-H30)))</f>
-        <v>305.61000000000007</v>
+        <f t="shared" si="50"/>
+        <v>293.68</v>
       </c>
     </row>
     <row r="32" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="C32" s="3">
+        <v>979</v>
+      </c>
       <c r="D32" s="3">
         <v>6</v>
       </c>
@@ -9964,91 +10079,94 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB32" s="6">
-        <f>J31-H31</f>
-        <v>2.5999999999999999E-2</v>
+        <f t="shared" si="31"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC32" s="6">
-        <f>T31-S31</f>
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" si="32"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD32" s="6">
-        <f t="shared" si="41"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="33"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="7">
+        <f t="shared" si="34"/>
+        <v>353.22666666666669</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" si="35"/>
+        <v>-456.33066666666673</v>
+      </c>
+      <c r="AH32" s="7">
+        <f t="shared" si="36"/>
+        <v>-456.33066666666667</v>
+      </c>
+      <c r="AJ32" s="8">
+        <f t="shared" si="37"/>
+        <v>2.1648212461695606</v>
+      </c>
+      <c r="AK32" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.7967150153217575</v>
+      </c>
+      <c r="AM32" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6</v>
+      </c>
+      <c r="AN32" s="8">
+        <f t="shared" si="40"/>
+        <v>-1.4666666666666666</v>
+      </c>
+      <c r="AP32" s="6">
+        <f t="shared" si="41"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AQ32" s="6">
         <f t="shared" si="42"/>
-        <v>496.42666666666668</v>
-      </c>
-      <c r="AG32" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AR32" s="6">
         <f t="shared" si="43"/>
-        <v>-331.46026666666671</v>
-      </c>
-      <c r="AH32" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AT32" s="3">
         <f t="shared" si="44"/>
-        <v>-331.46026666666671</v>
-      </c>
-      <c r="AJ32" s="8" t="e">
-        <f>(AF32*D31/1000)/((C32/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK32" s="4" t="e">
-        <f>(AG32*D31/1000)/((C32/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM32" s="8">
+        <v>2.9120000000000004E-2</v>
+      </c>
+      <c r="AU32" s="3">
+        <f t="shared" si="45"/>
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="AV32" s="3">
+        <f t="shared" si="46"/>
+        <v>6.0320000000000009E-3</v>
+      </c>
+      <c r="AX32" s="7">
         <f t="shared" si="47"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="AN32" s="8">
+        <v>19.618771597369303</v>
+      </c>
+      <c r="AY32" s="7">
         <f t="shared" si="48"/>
-        <v>3.1666666666666674</v>
-      </c>
-      <c r="AP32" s="6">
-        <f>O31-H31</f>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="AQ32" s="6">
-        <f>N31-H31</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AR32" s="6">
-        <f>K31-H31</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AT32" s="3">
-        <f t="shared" si="52"/>
-        <v>6.2730000000000008E-2</v>
-      </c>
-      <c r="AU32" s="3">
-        <f t="shared" si="53"/>
-        <v>1.3260000000000001E-2</v>
-      </c>
-      <c r="AV32" s="3">
-        <f t="shared" si="54"/>
-        <v>1.4029999999999999E-2</v>
-      </c>
-      <c r="AX32" s="7">
-        <f t="shared" si="55"/>
-        <v>147.80960873927103</v>
-      </c>
-      <c r="AY32" s="7">
-        <f t="shared" si="56"/>
-        <v>557.05532368350953</v>
+        <v>258.59159932510437</v>
       </c>
       <c r="AZ32" s="7">
-        <f t="shared" si="57"/>
-        <v>53.549618320610683</v>
+        <f t="shared" si="49"/>
+        <v>23.022900763358781</v>
       </c>
       <c r="BB32" s="3">
-        <f>1000*((11.85*(J31-H31))-(1.54*(L31-H31))-(0.08*(M31-H31)))</f>
-        <v>293.68</v>
+        <f t="shared" si="50"/>
+        <v>88.399999999999991</v>
       </c>
     </row>
     <row r="33" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="C33" s="3">
+        <v>1014</v>
+      </c>
       <c r="D33" s="3">
         <v>6</v>
       </c>
@@ -10110,91 +10228,94 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AB33" s="6">
-        <f>J32-H32</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="31"/>
+        <v>2.3E-2</v>
       </c>
       <c r="AC33" s="6">
-        <f>T32-S32</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="32"/>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD33" s="6">
-        <f t="shared" si="41"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="33"/>
+        <v>5.000000000000001E-3</v>
       </c>
       <c r="AE33" s="6"/>
       <c r="AF33" s="7">
+        <f t="shared" si="34"/>
+        <v>410.50666666666666</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="35"/>
+        <v>-245.54026666666675</v>
+      </c>
+      <c r="AH33" s="7">
+        <f t="shared" si="36"/>
+        <v>-245.54026666666672</v>
+      </c>
+      <c r="AJ33" s="8">
+        <f t="shared" si="37"/>
+        <v>2.4290335305719921</v>
+      </c>
+      <c r="AK33" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.4529009861932944</v>
+      </c>
+      <c r="AM33" s="8">
+        <f t="shared" si="39"/>
+        <v>1.2777777777777779</v>
+      </c>
+      <c r="AN33" s="8">
+        <f t="shared" si="40"/>
+        <v>2.7916666666666674</v>
+      </c>
+      <c r="AP33" s="6">
+        <f t="shared" si="41"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AQ33" s="6">
         <f t="shared" si="42"/>
-        <v>353.22666666666669</v>
-      </c>
-      <c r="AG33" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AR33" s="6">
         <f t="shared" si="43"/>
-        <v>-456.33066666666673</v>
-      </c>
-      <c r="AH33" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AT33" s="3">
         <f t="shared" si="44"/>
-        <v>-456.33066666666667</v>
-      </c>
-      <c r="AJ33" s="8" t="e">
-        <f>(AF33*D32/1000)/((C33/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK33" s="4" t="e">
-        <f>(AG33*D32/1000)/((C33/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM33" s="8">
+        <v>6.6560000000000008E-2</v>
+      </c>
+      <c r="AU33" s="3">
+        <f t="shared" si="45"/>
+        <v>8.349999999999998E-3</v>
+      </c>
+      <c r="AV33" s="3">
+        <f t="shared" si="46"/>
+        <v>1.7627999999999998E-2</v>
+      </c>
+      <c r="AX33" s="7">
         <f t="shared" si="47"/>
-        <v>1.6</v>
-      </c>
-      <c r="AN33" s="8">
+        <v>93.07769479433729</v>
+      </c>
+      <c r="AY33" s="7">
         <f t="shared" si="48"/>
-        <v>-1.4666666666666666</v>
-      </c>
-      <c r="AP33" s="6">
-        <f>O32-H32</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="AQ33" s="6">
-        <f>N32-H32</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AR33" s="6">
-        <f>K32-H32</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AT33" s="3">
-        <f t="shared" si="52"/>
-        <v>2.9120000000000004E-2</v>
-      </c>
-      <c r="AU33" s="3">
-        <f t="shared" si="53"/>
-        <v>1.7600000000000001E-3</v>
-      </c>
-      <c r="AV33" s="3">
-        <f t="shared" si="54"/>
-        <v>6.0320000000000009E-3</v>
-      </c>
-      <c r="AX33" s="7">
-        <f t="shared" si="55"/>
-        <v>19.618771597369303</v>
-      </c>
-      <c r="AY33" s="7">
-        <f t="shared" si="56"/>
-        <v>258.59159932510437</v>
+        <v>591.06651274309581</v>
       </c>
       <c r="AZ33" s="7">
-        <f t="shared" si="57"/>
-        <v>23.022900763358781</v>
+        <f t="shared" si="49"/>
+        <v>67.282442748091583</v>
       </c>
       <c r="BB33" s="3">
-        <f>1000*((11.85*(J32-H32))-(1.54*(L32-H32))-(0.08*(M32-H32)))</f>
-        <v>88.399999999999991</v>
+        <f t="shared" si="50"/>
+        <v>261.37</v>
       </c>
     </row>
     <row r="34" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="C34" s="3">
+        <v>1004</v>
+      </c>
       <c r="D34" s="3">
         <v>6</v>
       </c>
@@ -10256,91 +10377,94 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="AB34" s="6">
-        <f>J33-H33</f>
-        <v>2.3E-2</v>
+        <f t="shared" si="31"/>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AC34" s="6">
-        <f>T33-S33</f>
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" si="32"/>
+        <v>0.104</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" si="41"/>
-        <v>5.000000000000001E-3</v>
+        <f t="shared" si="33"/>
+        <v>5.9000000000000011E-2</v>
       </c>
       <c r="AE34" s="6"/>
       <c r="AF34" s="7">
+        <f t="shared" si="34"/>
+        <v>1957.0666666666668</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" si="35"/>
+        <v>-18.71146666666732</v>
+      </c>
+      <c r="AH34" s="7">
+        <f t="shared" si="36"/>
+        <v>-18.71146666666683</v>
+      </c>
+      <c r="AJ34" s="8">
+        <f t="shared" si="37"/>
+        <v>11.695617529880479</v>
+      </c>
+      <c r="AK34" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.11182151394422701</v>
+      </c>
+      <c r="AM34" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5673076923076925</v>
+      </c>
+      <c r="AN34" s="8">
+        <f t="shared" si="40"/>
+        <v>1.726950354609929</v>
+      </c>
+      <c r="AP34" s="6">
+        <f t="shared" si="41"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AQ34" s="6">
         <f t="shared" si="42"/>
-        <v>410.50666666666666</v>
-      </c>
-      <c r="AG34" s="7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AR34" s="6">
         <f t="shared" si="43"/>
-        <v>-245.54026666666675</v>
-      </c>
-      <c r="AH34" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AT34" s="3">
         <f t="shared" si="44"/>
-        <v>-245.54026666666672</v>
-      </c>
-      <c r="AJ34" s="8" t="e">
-        <f>(AF34*D33/1000)/((C34/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK34" s="4" t="e">
-        <f>(AG34*D33/1000)/((C34/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM34" s="8">
+        <v>0.31714999999999999</v>
+      </c>
+      <c r="AU34" s="3">
+        <f t="shared" si="45"/>
+        <v>0.10845</v>
+      </c>
+      <c r="AV34" s="3">
+        <f t="shared" si="46"/>
+        <v>6.8100000000000008E-2</v>
+      </c>
+      <c r="AX34" s="7">
         <f t="shared" si="47"/>
-        <v>1.2777777777777779</v>
-      </c>
-      <c r="AN34" s="8">
+        <v>1208.8953293947163</v>
+      </c>
+      <c r="AY34" s="7">
         <f t="shared" si="48"/>
-        <v>2.7916666666666674</v>
-      </c>
-      <c r="AP34" s="6">
-        <f>O33-H33</f>
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AQ34" s="6">
-        <f>N33-H33</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="AR34" s="6">
-        <f>K33-H33</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="AT34" s="3">
-        <f t="shared" si="52"/>
-        <v>6.6560000000000008E-2</v>
-      </c>
-      <c r="AU34" s="3">
-        <f t="shared" si="53"/>
-        <v>8.349999999999998E-3</v>
-      </c>
-      <c r="AV34" s="3">
-        <f t="shared" si="54"/>
-        <v>1.7627999999999998E-2</v>
-      </c>
-      <c r="AX34" s="7">
-        <f t="shared" si="55"/>
-        <v>93.07769479433729</v>
-      </c>
-      <c r="AY34" s="7">
-        <f t="shared" si="56"/>
-        <v>591.06651274309581</v>
+        <v>2816.357339490276</v>
       </c>
       <c r="AZ34" s="7">
-        <f t="shared" si="57"/>
-        <v>67.282442748091583</v>
+        <f t="shared" si="49"/>
+        <v>259.92366412213744</v>
       </c>
       <c r="BB34" s="3">
-        <f>1000*((11.85*(J33-H33))-(1.54*(L33-H33))-(0.08*(M33-H33)))</f>
-        <v>261.37</v>
+        <f t="shared" si="50"/>
+        <v>1846.89</v>
       </c>
     </row>
     <row r="35" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="C35" s="3">
+        <v>1011</v>
+      </c>
       <c r="D35" s="3">
         <v>6</v>
       </c>
@@ -10402,91 +10526,94 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB35" s="6">
-        <f>J34-H34</f>
-        <v>0.16300000000000001</v>
+        <f t="shared" si="31"/>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="AC35" s="6">
-        <f>T34-S34</f>
-        <v>0.104</v>
+        <f t="shared" si="32"/>
+        <v>1.6E-2</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="41"/>
-        <v>5.9000000000000011E-2</v>
+        <f t="shared" si="33"/>
+        <v>4.9999999999999975E-3</v>
       </c>
       <c r="AE35" s="6"/>
       <c r="AF35" s="7">
+        <f t="shared" si="34"/>
+        <v>410.5066666666666</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" si="35"/>
+        <v>-286.78186666666664</v>
+      </c>
+      <c r="AH35" s="7">
+        <f t="shared" si="36"/>
+        <v>-286.78186666666664</v>
+      </c>
+      <c r="AJ35" s="8">
+        <f t="shared" si="37"/>
+        <v>2.4362413452027694</v>
+      </c>
+      <c r="AK35" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.7019695351137485</v>
+      </c>
+      <c r="AM35" s="8">
+        <f t="shared" si="39"/>
+        <v>1.3124999999999998</v>
+      </c>
+      <c r="AN35" s="8">
+        <f t="shared" si="40"/>
+        <v>3.3888888888888884</v>
+      </c>
+      <c r="AP35" s="6">
+        <f t="shared" si="41"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AQ35" s="6">
         <f t="shared" si="42"/>
-        <v>1957.0666666666668</v>
-      </c>
-      <c r="AG35" s="7">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="AR35" s="6">
         <f t="shared" si="43"/>
-        <v>-18.71146666666732</v>
-      </c>
-      <c r="AH35" s="7">
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="AT35" s="3">
         <f t="shared" si="44"/>
-        <v>-18.71146666666683</v>
-      </c>
-      <c r="AJ35" s="8" t="e">
-        <f>(AF35*D34/1000)/((C35/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK35" s="4" t="e">
-        <f>(AG35*D34/1000)/((C35/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM35" s="8">
+        <v>8.8589999999999988E-2</v>
+      </c>
+      <c r="AU35" s="3">
+        <f t="shared" si="45"/>
+        <v>-1.200000000000014E-4</v>
+      </c>
+      <c r="AV35" s="3">
+        <f t="shared" si="46"/>
+        <v>2.0860000000000004E-2</v>
+      </c>
+      <c r="AX35" s="7">
         <f t="shared" si="47"/>
-        <v>1.5673076923076925</v>
-      </c>
-      <c r="AN35" s="8">
+        <v>-1.3376435180024679</v>
+      </c>
+      <c r="AY35" s="7">
         <f t="shared" si="48"/>
-        <v>1.726950354609929</v>
-      </c>
-      <c r="AP35" s="6">
-        <f>O34-H34</f>
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="AQ35" s="6">
-        <f>N34-H34</f>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="AR35" s="6">
-        <f>K34-H34</f>
-        <v>0.16</v>
-      </c>
-      <c r="AT35" s="3">
-        <f t="shared" si="52"/>
-        <v>0.31714999999999999</v>
-      </c>
-      <c r="AU35" s="3">
-        <f t="shared" si="53"/>
-        <v>0.10845</v>
-      </c>
-      <c r="AV35" s="3">
-        <f t="shared" si="54"/>
-        <v>6.8100000000000008E-2</v>
-      </c>
-      <c r="AX35" s="7">
-        <f t="shared" si="55"/>
-        <v>1208.8953293947163</v>
-      </c>
-      <c r="AY35" s="7">
-        <f t="shared" si="56"/>
-        <v>2816.357339490276</v>
+        <v>786.69745138087194</v>
       </c>
       <c r="AZ35" s="7">
-        <f t="shared" si="57"/>
-        <v>259.92366412213744</v>
+        <f t="shared" si="49"/>
+        <v>79.618320610687036</v>
       </c>
       <c r="BB35" s="3">
-        <f>1000*((11.85*(J34-H34))-(1.54*(L34-H34))-(0.08*(M34-H34)))</f>
-        <v>1846.89</v>
+        <f t="shared" si="50"/>
+        <v>232.64999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="C36" s="3">
+        <v>1084</v>
+      </c>
       <c r="D36" s="3">
         <v>6</v>
       </c>
@@ -10548,91 +10675,94 @@
         <v>6.2E-2</v>
       </c>
       <c r="AB36" s="6">
-        <f>J35-H35</f>
+        <f t="shared" si="31"/>
         <v>2.0999999999999998E-2</v>
       </c>
       <c r="AC36" s="6">
-        <f>T35-S35</f>
+        <f t="shared" si="32"/>
         <v>1.6E-2</v>
       </c>
       <c r="AD36" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4.9999999999999975E-3</v>
       </c>
       <c r="AE36" s="6"/>
       <c r="AF36" s="7">
+        <f t="shared" si="34"/>
+        <v>410.5066666666666</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="35"/>
+        <v>-286.78186666666664</v>
+      </c>
+      <c r="AH36" s="7">
+        <f t="shared" si="36"/>
+        <v>-286.78186666666664</v>
+      </c>
+      <c r="AJ36" s="8">
+        <f t="shared" si="37"/>
+        <v>2.2721771217712172</v>
+      </c>
+      <c r="AK36" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.5873535055350549</v>
+      </c>
+      <c r="AM36" s="8">
+        <f t="shared" si="39"/>
+        <v>1.3124999999999998</v>
+      </c>
+      <c r="AN36" s="8">
+        <f t="shared" si="40"/>
+        <v>3.3888888888888884</v>
+      </c>
+      <c r="AP36" s="6">
+        <f t="shared" si="41"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AQ36" s="6">
         <f t="shared" si="42"/>
-        <v>410.5066666666666</v>
-      </c>
-      <c r="AG36" s="7">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="AR36" s="6">
         <f t="shared" si="43"/>
-        <v>-286.78186666666664</v>
-      </c>
-      <c r="AH36" s="7">
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="AT36" s="3">
         <f t="shared" si="44"/>
-        <v>-286.78186666666664</v>
-      </c>
-      <c r="AJ36" s="8" t="e">
-        <f>(AF36*D35/1000)/((C36/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK36" s="4" t="e">
-        <f>(AG36*D35/1000)/((C36/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM36" s="8">
+        <v>7.5840000000000005E-2</v>
+      </c>
+      <c r="AU36" s="3">
+        <f t="shared" si="45"/>
+        <v>3.1299999999999948E-3</v>
+      </c>
+      <c r="AV36" s="3">
+        <f t="shared" si="46"/>
+        <v>2.2839999999999999E-2</v>
+      </c>
+      <c r="AX36" s="7">
         <f t="shared" si="47"/>
-        <v>1.3124999999999998</v>
-      </c>
-      <c r="AN36" s="8">
+        <v>34.890201761230571</v>
+      </c>
+      <c r="AY36" s="7">
         <f t="shared" si="48"/>
-        <v>3.3888888888888884</v>
-      </c>
-      <c r="AP36" s="6">
-        <f>O35-H35</f>
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="AQ36" s="6">
-        <f>N35-H35</f>
-        <v>2.7000000000000003E-2</v>
-      </c>
-      <c r="AR36" s="6">
-        <f>K35-H35</f>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="AT36" s="3">
-        <f t="shared" si="52"/>
-        <v>8.8589999999999988E-2</v>
-      </c>
-      <c r="AU36" s="3">
-        <f t="shared" si="53"/>
-        <v>-1.200000000000014E-4</v>
-      </c>
-      <c r="AV36" s="3">
-        <f t="shared" si="54"/>
-        <v>2.0860000000000004E-2</v>
-      </c>
-      <c r="AX36" s="7">
-        <f t="shared" si="55"/>
-        <v>-1.3376435180024679</v>
-      </c>
-      <c r="AY36" s="7">
-        <f t="shared" si="56"/>
-        <v>786.69745138087194</v>
+        <v>673.47482461593108</v>
       </c>
       <c r="AZ36" s="7">
-        <f t="shared" si="57"/>
-        <v>79.618320610687036</v>
+        <f t="shared" si="49"/>
+        <v>87.175572519083971</v>
       </c>
       <c r="BB36" s="3">
-        <f>1000*((11.85*(J35-H35))-(1.54*(L35-H35))-(0.08*(M35-H35)))</f>
-        <v>232.64999999999998</v>
+        <f t="shared" si="50"/>
+        <v>235.88999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="C37" s="3">
+        <v>950</v>
+      </c>
       <c r="D37" s="3">
         <v>6</v>
       </c>
@@ -10694,91 +10824,94 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AB37" s="6">
-        <f>J36-H36</f>
-        <v>2.0999999999999998E-2</v>
+        <f t="shared" si="31"/>
+        <v>0.02</v>
       </c>
       <c r="AC37" s="6">
-        <f>T36-S36</f>
+        <f t="shared" si="32"/>
         <v>1.6E-2</v>
       </c>
       <c r="AD37" s="6">
-        <f t="shared" si="41"/>
-        <v>4.9999999999999975E-3</v>
+        <f t="shared" si="33"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AE37" s="6"/>
       <c r="AF37" s="7">
+        <f t="shared" si="34"/>
+        <v>381.86666666666667</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" si="35"/>
+        <v>-258.14186666666671</v>
+      </c>
+      <c r="AH37" s="7">
+        <f t="shared" si="36"/>
+        <v>-258.14186666666671</v>
+      </c>
+      <c r="AJ37" s="8">
+        <f t="shared" si="37"/>
+        <v>2.4117894736842107</v>
+      </c>
+      <c r="AK37" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.6303696842105266</v>
+      </c>
+      <c r="AM37" s="8">
+        <f t="shared" si="39"/>
+        <v>1.25</v>
+      </c>
+      <c r="AN37" s="8">
+        <f t="shared" si="40"/>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="AP37" s="6">
+        <f t="shared" si="41"/>
+        <v>0.06</v>
+      </c>
+      <c r="AQ37" s="6">
         <f t="shared" si="42"/>
-        <v>410.5066666666666</v>
-      </c>
-      <c r="AG37" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AR37" s="6">
         <f t="shared" si="43"/>
-        <v>-286.78186666666664</v>
-      </c>
-      <c r="AH37" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AT37" s="3">
         <f t="shared" si="44"/>
-        <v>-286.78186666666664</v>
-      </c>
-      <c r="AJ37" s="8" t="e">
-        <f>(AF37*D36/1000)/((C37/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK37" s="4" t="e">
-        <f>(AG37*D36/1000)/((C37/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM37" s="8">
+        <v>7.0929999999999993E-2</v>
+      </c>
+      <c r="AU37" s="3">
+        <f t="shared" si="45"/>
+        <v>3.4200000000000025E-3</v>
+      </c>
+      <c r="AV37" s="3">
+        <f t="shared" si="46"/>
+        <v>1.9186000000000002E-2</v>
+      </c>
+      <c r="AX37" s="7">
         <f t="shared" si="47"/>
-        <v>1.3124999999999998</v>
-      </c>
-      <c r="AN37" s="8">
+        <v>38.122840263069918</v>
+      </c>
+      <c r="AY37" s="7">
         <f t="shared" si="48"/>
-        <v>3.3888888888888884</v>
-      </c>
-      <c r="AP37" s="6">
-        <f>O36-H36</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AQ37" s="6">
-        <f>N36-H36</f>
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="AR37" s="6">
-        <f>K36-H36</f>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="AT37" s="3">
-        <f t="shared" si="52"/>
-        <v>7.5840000000000005E-2</v>
-      </c>
-      <c r="AU37" s="3">
-        <f t="shared" si="53"/>
-        <v>3.1299999999999948E-3</v>
-      </c>
-      <c r="AV37" s="3">
-        <f t="shared" si="54"/>
-        <v>2.2839999999999999E-2</v>
-      </c>
-      <c r="AX37" s="7">
-        <f t="shared" si="55"/>
-        <v>34.890201761230571</v>
-      </c>
-      <c r="AY37" s="7">
-        <f t="shared" si="56"/>
-        <v>673.47482461593108</v>
+        <v>629.87301305390281</v>
       </c>
       <c r="AZ37" s="7">
-        <f t="shared" si="57"/>
-        <v>87.175572519083971</v>
+        <f t="shared" si="49"/>
+        <v>73.229007633587784</v>
       </c>
       <c r="BB37" s="3">
-        <f>1000*((11.85*(J36-H36))-(1.54*(L36-H36))-(0.08*(M36-H36)))</f>
-        <v>235.88999999999996</v>
+        <f t="shared" si="50"/>
+        <v>224.2</v>
       </c>
     </row>
     <row r="38" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="C38" s="3">
+        <v>1052</v>
+      </c>
       <c r="D38" s="3">
         <v>6</v>
       </c>
@@ -10840,91 +10973,94 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="AB38" s="6">
-        <f>J37-H37</f>
-        <v>0.02</v>
+        <f t="shared" si="31"/>
+        <v>9.4E-2</v>
       </c>
       <c r="AC38" s="6">
-        <f>T37-S37</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="32"/>
+        <v>0.06</v>
       </c>
       <c r="AD38" s="6">
-        <f t="shared" si="41"/>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="33"/>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="7">
+        <f t="shared" si="34"/>
+        <v>1241.0666666666668</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" si="35"/>
+        <v>-210.0266666666667</v>
+      </c>
+      <c r="AH38" s="7">
+        <f t="shared" si="36"/>
+        <v>-210.02666666666698</v>
+      </c>
+      <c r="AJ38" s="8">
+        <f t="shared" si="37"/>
+        <v>7.0783269961977195</v>
+      </c>
+      <c r="AK38" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.1978707224334604</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="AN38" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8666666666666669</v>
+      </c>
+      <c r="AP38" s="6">
+        <f t="shared" si="41"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AQ38" s="6">
         <f t="shared" si="42"/>
-        <v>381.86666666666667</v>
-      </c>
-      <c r="AG38" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="AR38" s="6">
         <f t="shared" si="43"/>
-        <v>-258.14186666666671</v>
-      </c>
-      <c r="AH38" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AT38" s="3">
         <f t="shared" si="44"/>
-        <v>-258.14186666666671</v>
-      </c>
-      <c r="AJ38" s="8" t="e">
-        <f>(AF38*D37/1000)/((C38/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK38" s="4" t="e">
-        <f>(AG38*D37/1000)/((C38/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM38" s="8">
+        <v>0.19480000000000003</v>
+      </c>
+      <c r="AU38" s="3">
+        <f t="shared" si="45"/>
+        <v>5.8530000000000006E-2</v>
+      </c>
+      <c r="AV38" s="3">
+        <f t="shared" si="46"/>
+        <v>4.8167999999999996E-2</v>
+      </c>
+      <c r="AX38" s="7">
         <f t="shared" si="47"/>
-        <v>1.25</v>
-      </c>
-      <c r="AN38" s="8">
+        <v>652.43562590569627</v>
+      </c>
+      <c r="AY38" s="7">
         <f t="shared" si="48"/>
-        <v>3.2222222222222223</v>
-      </c>
-      <c r="AP38" s="6">
-        <f>O37-H37</f>
-        <v>0.06</v>
-      </c>
-      <c r="AQ38" s="6">
-        <f>N37-H37</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="AR38" s="6">
-        <f>K37-H37</f>
-        <v>1.9E-2</v>
-      </c>
-      <c r="AT38" s="3">
-        <f t="shared" si="52"/>
-        <v>7.0929999999999993E-2</v>
-      </c>
-      <c r="AU38" s="3">
-        <f t="shared" si="53"/>
-        <v>3.4200000000000025E-3</v>
-      </c>
-      <c r="AV38" s="3">
-        <f t="shared" si="54"/>
-        <v>1.9186000000000002E-2</v>
-      </c>
-      <c r="AX38" s="7">
-        <f t="shared" si="55"/>
-        <v>38.122840263069918</v>
-      </c>
-      <c r="AY38" s="7">
-        <f t="shared" si="56"/>
-        <v>629.87301305390281</v>
+        <v>1729.8641328478823</v>
       </c>
       <c r="AZ38" s="7">
-        <f t="shared" si="57"/>
-        <v>73.229007633587784</v>
+        <f t="shared" si="49"/>
+        <v>183.84732824427479</v>
       </c>
       <c r="BB38" s="3">
-        <f>1000*((11.85*(J37-H37))-(1.54*(L37-H37))-(0.08*(M37-H37)))</f>
-        <v>224.2</v>
+        <f t="shared" si="50"/>
+        <v>1065.9399999999998</v>
       </c>
     </row>
     <row r="39" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="C39" s="3">
+        <v>1090</v>
+      </c>
       <c r="D39" s="3">
         <v>6</v>
       </c>
@@ -10986,91 +11122,94 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="AB39" s="6">
-        <f>J38-H38</f>
-        <v>9.4E-2</v>
+        <f t="shared" si="31"/>
+        <v>0.17100000000000001</v>
       </c>
       <c r="AC39" s="6">
-        <f>T38-S38</f>
-        <v>0.06</v>
+        <f t="shared" si="32"/>
+        <v>0.107</v>
       </c>
       <c r="AD39" s="6">
-        <f t="shared" si="41"/>
-        <v>3.4000000000000002E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.4000000000000015E-2</v>
       </c>
       <c r="AE39" s="6"/>
       <c r="AF39" s="7">
+        <f t="shared" si="34"/>
+        <v>2100.2666666666673</v>
+      </c>
+      <c r="AG39" s="7">
+        <f t="shared" si="35"/>
+        <v>-100.04906666666761</v>
+      </c>
+      <c r="AH39" s="7">
+        <f t="shared" si="36"/>
+        <v>-100.04906666666631</v>
+      </c>
+      <c r="AJ39" s="8">
+        <f t="shared" si="37"/>
+        <v>11.561100917431196</v>
+      </c>
+      <c r="AK39" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.55072880733945473</v>
+      </c>
+      <c r="AM39" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5981308411214954</v>
+      </c>
+      <c r="AN39" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7560137457044673</v>
+      </c>
+      <c r="AP39" s="6">
+        <f t="shared" si="41"/>
+        <v>0.246</v>
+      </c>
+      <c r="AQ39" s="6">
         <f t="shared" si="42"/>
-        <v>1241.0666666666668</v>
-      </c>
-      <c r="AG39" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AR39" s="6">
         <f t="shared" si="43"/>
-        <v>-210.0266666666667</v>
-      </c>
-      <c r="AH39" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AT39" s="3">
         <f t="shared" si="44"/>
-        <v>-210.02666666666698</v>
-      </c>
-      <c r="AJ39" s="8" t="e">
-        <f>(AF39*D38/1000)/((C39/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK39" s="4" t="e">
-        <f>(AG39*D38/1000)/((C39/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM39" s="8">
+        <v>0.35481000000000001</v>
+      </c>
+      <c r="AU39" s="3">
+        <f t="shared" si="45"/>
+        <v>0.10619000000000001</v>
+      </c>
+      <c r="AV39" s="3">
+        <f t="shared" si="46"/>
+        <v>0.103452</v>
+      </c>
+      <c r="AX39" s="7">
         <f t="shared" si="47"/>
-        <v>1.5666666666666667</v>
-      </c>
-      <c r="AN39" s="8">
+        <v>1183.7030431390035</v>
+      </c>
+      <c r="AY39" s="7">
         <f t="shared" si="48"/>
-        <v>1.8666666666666669</v>
-      </c>
-      <c r="AP39" s="6">
-        <f>O38-H38</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AQ39" s="6">
-        <f>N38-H38</f>
-        <v>0.06</v>
-      </c>
-      <c r="AR39" s="6">
-        <f>K38-H38</f>
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="AT39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.19480000000000003</v>
-      </c>
-      <c r="AU39" s="3">
-        <f t="shared" si="53"/>
-        <v>5.8530000000000006E-2</v>
-      </c>
-      <c r="AV39" s="3">
-        <f t="shared" si="54"/>
-        <v>4.8167999999999996E-2</v>
-      </c>
-      <c r="AX39" s="7">
-        <f t="shared" si="55"/>
-        <v>652.43562590569627</v>
-      </c>
-      <c r="AY39" s="7">
-        <f t="shared" si="56"/>
-        <v>1729.8641328478823</v>
+        <v>3150.7858982328389</v>
       </c>
       <c r="AZ39" s="7">
-        <f t="shared" si="57"/>
-        <v>183.84732824427479</v>
+        <f t="shared" si="49"/>
+        <v>394.85496183206106</v>
       </c>
       <c r="BB39" s="3">
-        <f>1000*((11.85*(J38-H38))-(1.54*(L38-H38))-(0.08*(M38-H38)))</f>
-        <v>1065.9399999999998</v>
+        <f t="shared" si="50"/>
+        <v>1938.37</v>
       </c>
     </row>
     <row r="40" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="C40" s="3">
+        <v>1082</v>
+      </c>
       <c r="D40" s="3">
         <v>6</v>
       </c>
@@ -11132,91 +11271,94 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="AB40" s="6">
-        <f>J39-H39</f>
-        <v>0.17100000000000001</v>
+        <f t="shared" si="31"/>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AC40" s="6">
-        <f>T39-S39</f>
-        <v>0.107</v>
+        <f t="shared" si="32"/>
+        <v>3.1E-2</v>
       </c>
       <c r="AD40" s="6">
-        <f t="shared" si="41"/>
-        <v>6.4000000000000015E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="AE40" s="6"/>
       <c r="AF40" s="7">
+        <f t="shared" si="34"/>
+        <v>840.10666666666657</v>
+      </c>
+      <c r="AG40" s="7">
+        <f t="shared" si="35"/>
+        <v>-407.0698666666666</v>
+      </c>
+      <c r="AH40" s="7">
+        <f t="shared" si="36"/>
+        <v>-407.06986666666671</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f t="shared" si="37"/>
+        <v>4.6586321626617373</v>
+      </c>
+      <c r="AK40" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.2573190388170046</v>
+      </c>
+      <c r="AM40" s="8">
+        <f t="shared" si="39"/>
+        <v>1.6451612903225805</v>
+      </c>
+      <c r="AN40" s="8">
+        <f t="shared" si="40"/>
+        <v>2.3968253968253967</v>
+      </c>
+      <c r="AP40" s="6">
+        <f t="shared" si="41"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AQ40" s="6">
         <f t="shared" si="42"/>
-        <v>2100.2666666666673</v>
-      </c>
-      <c r="AG40" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AR40" s="6">
         <f t="shared" si="43"/>
-        <v>-100.04906666666761</v>
-      </c>
-      <c r="AH40" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AT40" s="3">
         <f t="shared" si="44"/>
-        <v>-100.04906666666631</v>
-      </c>
-      <c r="AJ40" s="8" t="e">
-        <f>(AF40*D39/1000)/((C40/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK40" s="4" t="e">
-        <f>(AG40*D39/1000)/((C40/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM40" s="8">
+        <v>0.10368000000000001</v>
+      </c>
+      <c r="AU40" s="3">
+        <f t="shared" si="45"/>
+        <v>3.3699999999999987E-2</v>
+      </c>
+      <c r="AV40" s="3">
+        <f t="shared" si="46"/>
+        <v>2.4774000000000001E-2</v>
+      </c>
+      <c r="AX40" s="7">
         <f t="shared" si="47"/>
-        <v>1.5981308411214954</v>
-      </c>
-      <c r="AN40" s="8">
+        <v>375.65488797235525</v>
+      </c>
+      <c r="AY40" s="7">
         <f t="shared" si="48"/>
-        <v>1.7560137457044673</v>
-      </c>
-      <c r="AP40" s="6">
-        <f>O39-H39</f>
-        <v>0.246</v>
-      </c>
-      <c r="AQ40" s="6">
-        <f>N39-H39</f>
-        <v>0.125</v>
-      </c>
-      <c r="AR40" s="6">
-        <f>K39-H39</f>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="AT40" s="3">
-        <f t="shared" si="52"/>
-        <v>0.35481000000000001</v>
-      </c>
-      <c r="AU40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.10619000000000001</v>
-      </c>
-      <c r="AV40" s="3">
-        <f t="shared" si="54"/>
-        <v>0.103452</v>
-      </c>
-      <c r="AX40" s="7">
-        <f t="shared" si="55"/>
-        <v>1183.7030431390035</v>
-      </c>
-      <c r="AY40" s="7">
-        <f t="shared" si="56"/>
-        <v>3150.7858982328389</v>
+        <v>920.69976023443758</v>
       </c>
       <c r="AZ40" s="7">
-        <f t="shared" si="57"/>
-        <v>394.85496183206106</v>
+        <f t="shared" si="49"/>
+        <v>94.55725190839695</v>
       </c>
       <c r="BB40" s="3">
-        <f>1000*((11.85*(J39-H39))-(1.54*(L39-H39))-(0.08*(M39-H39)))</f>
-        <v>1938.37</v>
+        <f t="shared" si="50"/>
+        <v>574.13</v>
       </c>
     </row>
     <row r="41" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>182</v>
       </c>
+      <c r="C41" s="3">
+        <v>1056</v>
+      </c>
       <c r="D41" s="3">
         <v>6</v>
       </c>
@@ -11278,91 +11420,94 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="AB41" s="6">
-        <f>J40-H40</f>
+        <f t="shared" si="31"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="AC41" s="6">
-        <f>T40-S40</f>
-        <v>3.1E-2</v>
+        <f t="shared" si="32"/>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AD41" s="6">
-        <f t="shared" si="41"/>
-        <v>1.9999999999999997E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.6999999999999994E-2</v>
       </c>
       <c r="AE41" s="6"/>
       <c r="AF41" s="7">
+        <f t="shared" si="34"/>
+        <v>754.1866666666665</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" si="35"/>
+        <v>-259.28746666666649</v>
+      </c>
+      <c r="AH41" s="7">
+        <f t="shared" si="36"/>
+        <v>-259.28746666666655</v>
+      </c>
+      <c r="AJ41" s="8">
+        <f t="shared" si="37"/>
+        <v>4.2851515151515143</v>
+      </c>
+      <c r="AK41" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.4732242424242414</v>
+      </c>
+      <c r="AM41" s="8">
+        <f t="shared" si="39"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="AN41" s="8">
+        <f t="shared" si="40"/>
+        <v>2.0972222222222219</v>
+      </c>
+      <c r="AP41" s="6">
+        <f t="shared" si="41"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AQ41" s="6">
         <f t="shared" si="42"/>
-        <v>840.10666666666657</v>
-      </c>
-      <c r="AG41" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AR41" s="6">
         <f t="shared" si="43"/>
-        <v>-407.0698666666666</v>
-      </c>
-      <c r="AH41" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AT41" s="3">
         <f t="shared" si="44"/>
-        <v>-407.06986666666671</v>
-      </c>
-      <c r="AJ41" s="8" t="e">
-        <f>(AF41*D40/1000)/((C41/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK41" s="4" t="e">
-        <f>(AG41*D40/1000)/((C41/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM41" s="8">
+        <v>0.12047000000000001</v>
+      </c>
+      <c r="AU41" s="3">
+        <f t="shared" si="45"/>
+        <v>2.8679999999999997E-2</v>
+      </c>
+      <c r="AV41" s="3">
+        <f t="shared" si="46"/>
+        <v>3.4474000000000005E-2</v>
+      </c>
+      <c r="AX41" s="7">
         <f t="shared" si="47"/>
-        <v>1.6451612903225805</v>
-      </c>
-      <c r="AN41" s="8">
+        <v>319.6968008025861</v>
+      </c>
+      <c r="AY41" s="7">
         <f t="shared" si="48"/>
-        <v>2.3968253968253967</v>
-      </c>
-      <c r="AP41" s="6">
-        <f>O40-H40</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="AQ41" s="6">
-        <f>N40-H40</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="AR41" s="6">
-        <f>K40-H40</f>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="AT41" s="3">
-        <f t="shared" si="52"/>
-        <v>0.10368000000000001</v>
-      </c>
-      <c r="AU41" s="3">
-        <f t="shared" si="53"/>
-        <v>3.3699999999999987E-2</v>
-      </c>
-      <c r="AV41" s="3">
-        <f t="shared" si="54"/>
-        <v>2.4774000000000001E-2</v>
-      </c>
-      <c r="AX41" s="7">
-        <f t="shared" si="55"/>
-        <v>375.65488797235525</v>
-      </c>
-      <c r="AY41" s="7">
-        <f t="shared" si="56"/>
-        <v>920.69976023443758</v>
+        <v>1069.7984193233285</v>
       </c>
       <c r="AZ41" s="7">
-        <f t="shared" si="57"/>
-        <v>94.55725190839695</v>
+        <f t="shared" si="49"/>
+        <v>131.58015267175574</v>
       </c>
       <c r="BB41" s="3">
-        <f>1000*((11.85*(J40-H40))-(1.54*(L40-H40))-(0.08*(M40-H40)))</f>
-        <v>574.13</v>
+        <f t="shared" si="50"/>
+        <v>573.97</v>
       </c>
     </row>
     <row r="42" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C42" s="3">
+        <v>1028</v>
+      </c>
       <c r="D42" s="3">
         <v>6</v>
       </c>
@@ -11424,91 +11569,94 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="AB42" s="6">
-        <f>J41-H41</f>
-        <v>5.0999999999999997E-2</v>
+        <f t="shared" si="31"/>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AC42" s="6">
-        <f>T41-S41</f>
-        <v>3.4000000000000002E-2</v>
+        <f t="shared" si="32"/>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD42" s="6">
-        <f t="shared" si="41"/>
-        <v>1.6999999999999994E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.6999999999999998E-2</v>
       </c>
       <c r="AE42" s="6"/>
       <c r="AF42" s="7">
+        <f t="shared" si="34"/>
+        <v>754.18666666666661</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" si="35"/>
+        <v>-362.39146666666664</v>
+      </c>
+      <c r="AH42" s="7">
+        <f t="shared" si="36"/>
+        <v>-362.39146666666636</v>
+      </c>
+      <c r="AJ42" s="8">
+        <f t="shared" si="37"/>
+        <v>4.4018677042801562</v>
+      </c>
+      <c r="AK42" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.1151252918287935</v>
+      </c>
+      <c r="AM42" s="8">
+        <f t="shared" si="39"/>
+        <v>1.586206896551724</v>
+      </c>
+      <c r="AN42" s="8">
+        <f t="shared" si="40"/>
+        <v>2.3859649122807012</v>
+      </c>
+      <c r="AP42" s="6">
+        <f t="shared" si="41"/>
+        <v>0.159</v>
+      </c>
+      <c r="AQ42" s="6">
         <f t="shared" si="42"/>
-        <v>754.1866666666665</v>
-      </c>
-      <c r="AG42" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AR42" s="6">
         <f t="shared" si="43"/>
-        <v>-259.28746666666649</v>
-      </c>
-      <c r="AH42" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AT42" s="3">
         <f t="shared" si="44"/>
-        <v>-259.28746666666655</v>
-      </c>
-      <c r="AJ42" s="8" t="e">
-        <f>(AF42*D41/1000)/((C42/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK42" s="4" t="e">
-        <f>(AG42*D41/1000)/((C42/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM42" s="8">
+        <v>0.19037999999999999</v>
+      </c>
+      <c r="AU42" s="3">
+        <f t="shared" si="45"/>
+        <v>3.3599999999999936E-3</v>
+      </c>
+      <c r="AV42" s="3">
+        <f t="shared" si="46"/>
+        <v>2.589E-2</v>
+      </c>
+      <c r="AX42" s="7">
         <f t="shared" si="47"/>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="AN42" s="8">
+        <v>37.4540185040686</v>
+      </c>
+      <c r="AY42" s="7">
         <f t="shared" si="48"/>
-        <v>2.0972222222222219</v>
-      </c>
-      <c r="AP42" s="6">
-        <f>O41-H41</f>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="AQ42" s="6">
-        <f>N41-H41</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AR42" s="6">
-        <f>K41-H41</f>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="AT42" s="3">
-        <f t="shared" si="52"/>
-        <v>0.12047000000000001</v>
-      </c>
-      <c r="AU42" s="3">
-        <f t="shared" si="53"/>
-        <v>2.8679999999999997E-2</v>
-      </c>
-      <c r="AV42" s="3">
-        <f t="shared" si="54"/>
-        <v>3.4474000000000005E-2</v>
-      </c>
-      <c r="AX42" s="7">
-        <f t="shared" si="55"/>
-        <v>319.6968008025861</v>
-      </c>
-      <c r="AY42" s="7">
-        <f t="shared" si="56"/>
-        <v>1069.7984193233285</v>
+        <v>1690.6136222360358</v>
       </c>
       <c r="AZ42" s="7">
-        <f t="shared" si="57"/>
-        <v>131.58015267175574</v>
+        <f t="shared" si="49"/>
+        <v>98.81679389312977</v>
       </c>
       <c r="BB42" s="3">
-        <f>1000*((11.85*(J41-H41))-(1.54*(L41-H41))-(0.08*(M41-H41)))</f>
-        <v>573.97</v>
+        <f t="shared" si="50"/>
+        <v>516.18000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="C43" s="3">
+        <v>1046</v>
+      </c>
       <c r="D43" s="3">
         <v>18</v>
       </c>
@@ -11570,91 +11718,94 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="AB43" s="6">
-        <f>J42-H42</f>
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" si="31"/>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC43" s="6">
-        <f>T42-S42</f>
-        <v>2.9000000000000001E-2</v>
+        <f t="shared" si="32"/>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD43" s="6">
-        <f t="shared" si="41"/>
-        <v>1.6999999999999998E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.9999999999999992E-3</v>
       </c>
       <c r="AE43" s="6"/>
       <c r="AF43" s="7">
+        <f t="shared" si="34"/>
+        <v>324.58666666666664</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" si="35"/>
+        <v>-386.44906666666668</v>
+      </c>
+      <c r="AH43" s="7">
+        <f t="shared" si="36"/>
+        <v>-386.44906666666668</v>
+      </c>
+      <c r="AJ43" s="8">
+        <f t="shared" si="37"/>
+        <v>5.5856214149139571</v>
+      </c>
+      <c r="AK43" s="4">
+        <f t="shared" si="38"/>
+        <v>-6.650175143403442</v>
+      </c>
+      <c r="AM43" s="8">
+        <f t="shared" si="39"/>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="AN43" s="8">
+        <f t="shared" si="40"/>
+        <v>-2.7777777777777777</v>
+      </c>
+      <c r="AP43" s="6">
+        <f t="shared" si="41"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="AQ43" s="6">
         <f t="shared" si="42"/>
-        <v>754.18666666666661</v>
-      </c>
-      <c r="AG43" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AR43" s="6">
         <f t="shared" si="43"/>
-        <v>-362.39146666666664</v>
-      </c>
-      <c r="AH43" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AT43" s="3">
         <f t="shared" si="44"/>
-        <v>-362.39146666666636</v>
-      </c>
-      <c r="AJ43" s="8" t="e">
-        <f>(AF43*D42/1000)/((C43/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK43" s="4" t="e">
-        <f>(AG43*D42/1000)/((C43/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM43" s="8">
+        <v>3.6109999999999996E-2</v>
+      </c>
+      <c r="AU43" s="3">
+        <f t="shared" si="45"/>
+        <v>9.2999999999999821E-4</v>
+      </c>
+      <c r="AV43" s="3">
+        <f t="shared" si="46"/>
+        <v>9.5260000000000015E-3</v>
+      </c>
+      <c r="AX43" s="7">
         <f t="shared" si="47"/>
-        <v>1.586206896551724</v>
-      </c>
-      <c r="AN43" s="8">
+        <v>10.366737264518987</v>
+      </c>
+      <c r="AY43" s="7">
         <f t="shared" si="48"/>
-        <v>2.3859649122807012</v>
-      </c>
-      <c r="AP43" s="6">
-        <f>O42-H42</f>
-        <v>0.159</v>
-      </c>
-      <c r="AQ43" s="6">
-        <f>N42-H42</f>
-        <v>3.9E-2</v>
-      </c>
-      <c r="AR43" s="6">
-        <f>K42-H42</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AT43" s="3">
-        <f t="shared" si="52"/>
-        <v>0.19037999999999999</v>
-      </c>
-      <c r="AU43" s="3">
-        <f t="shared" si="53"/>
-        <v>3.3599999999999936E-3</v>
-      </c>
-      <c r="AV43" s="3">
-        <f t="shared" si="54"/>
-        <v>2.589E-2</v>
-      </c>
-      <c r="AX43" s="7">
-        <f t="shared" si="55"/>
-        <v>37.4540185040686</v>
-      </c>
-      <c r="AY43" s="7">
-        <f t="shared" si="56"/>
-        <v>1690.6136222360358</v>
+        <v>320.66423941035424</v>
       </c>
       <c r="AZ43" s="7">
-        <f t="shared" si="57"/>
-        <v>98.81679389312977</v>
+        <f t="shared" si="49"/>
+        <v>36.358778625954209</v>
       </c>
       <c r="BB43" s="3">
-        <f>1000*((11.85*(J42-H42))-(1.54*(L42-H42))-(0.08*(M42-H42)))</f>
-        <v>516.18000000000006</v>
+        <f t="shared" si="50"/>
+        <v>100.17</v>
       </c>
     </row>
     <row r="44" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="C44" s="3">
+        <v>1002</v>
+      </c>
       <c r="D44" s="3">
         <v>6</v>
       </c>
@@ -11716,91 +11867,94 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB44" s="6">
-        <f>J43-H43</f>
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" si="31"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AC44" s="6">
-        <f>T43-S43</f>
-        <v>7.0000000000000001E-3</v>
+        <f t="shared" si="32"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD44" s="6">
-        <f t="shared" si="41"/>
-        <v>1.9999999999999992E-3</v>
+        <f t="shared" si="33"/>
+        <v>1.2999999999999998E-2</v>
       </c>
       <c r="AE44" s="6"/>
       <c r="AF44" s="7">
+        <f t="shared" si="34"/>
+        <v>639.62666666666655</v>
+      </c>
+      <c r="AG44" s="7">
+        <f t="shared" si="35"/>
+        <v>-330.31466666666654</v>
+      </c>
+      <c r="AH44" s="7">
+        <f t="shared" si="36"/>
+        <v>-330.31466666666654</v>
+      </c>
+      <c r="AJ44" s="8">
+        <f t="shared" si="37"/>
+        <v>3.8300998003992008</v>
+      </c>
+      <c r="AK44" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.9779321357285422</v>
+      </c>
+      <c r="AM44" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5199999999999998</v>
+      </c>
+      <c r="AN44" s="8">
+        <f t="shared" si="40"/>
+        <v>2.4888888888888885</v>
+      </c>
+      <c r="AP44" s="6">
+        <f t="shared" si="41"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AQ44" s="6">
         <f t="shared" si="42"/>
-        <v>324.58666666666664</v>
-      </c>
-      <c r="AG44" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AR44" s="6">
         <f t="shared" si="43"/>
-        <v>-386.44906666666668</v>
-      </c>
-      <c r="AH44" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AT44" s="3">
         <f t="shared" si="44"/>
-        <v>-386.44906666666668</v>
-      </c>
-      <c r="AJ44" s="8" t="e">
-        <f>(AF44*D43/1000)/((C44/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK44" s="4" t="e">
-        <f>(AG44*D43/1000)/((C44/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM44" s="8">
+        <v>9.1619999999999993E-2</v>
+      </c>
+      <c r="AU44" s="3">
+        <f t="shared" si="45"/>
+        <v>1.9919999999999993E-2</v>
+      </c>
+      <c r="AV44" s="3">
+        <f t="shared" si="46"/>
+        <v>2.1217999999999997E-2</v>
+      </c>
+      <c r="AX44" s="7">
         <f t="shared" si="47"/>
-        <v>1.2857142857142856</v>
-      </c>
-      <c r="AN44" s="8">
+        <v>222.04882398840704</v>
+      </c>
+      <c r="AY44" s="7">
         <f t="shared" si="48"/>
-        <v>-2.7777777777777777</v>
-      </c>
-      <c r="AP44" s="6">
-        <f>O43-H43</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="AQ44" s="6">
-        <f>N43-H43</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="AR44" s="6">
-        <f>K43-H43</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AT44" s="3">
-        <f t="shared" si="52"/>
-        <v>3.6109999999999996E-2</v>
-      </c>
-      <c r="AU44" s="3">
-        <f t="shared" si="53"/>
-        <v>9.2999999999999821E-4</v>
-      </c>
-      <c r="AV44" s="3">
-        <f t="shared" si="54"/>
-        <v>9.5260000000000015E-3</v>
-      </c>
-      <c r="AX44" s="7">
-        <f t="shared" si="55"/>
-        <v>10.366737264518987</v>
-      </c>
-      <c r="AY44" s="7">
-        <f t="shared" si="56"/>
-        <v>320.66423941035424</v>
+        <v>813.60447562383445</v>
       </c>
       <c r="AZ44" s="7">
-        <f t="shared" si="57"/>
-        <v>36.358778625954209</v>
+        <f t="shared" si="49"/>
+        <v>80.984732824427468</v>
       </c>
       <c r="BB44" s="3">
-        <f>1000*((11.85*(J43-H43))-(1.54*(L43-H43))-(0.08*(M43-H43)))</f>
-        <v>100.17</v>
+        <f t="shared" si="50"/>
+        <v>427.93999999999994</v>
       </c>
     </row>
     <row r="45" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="C45" s="3">
+        <v>1023</v>
+      </c>
       <c r="D45" s="3">
         <v>6</v>
       </c>
@@ -11862,91 +12016,94 @@
         <v>0.02</v>
       </c>
       <c r="AB45" s="6">
-        <f>J44-H44</f>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="31"/>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AC45" s="6">
-        <f>T44-S44</f>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="32"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD45" s="6">
-        <f t="shared" si="41"/>
-        <v>1.2999999999999998E-2</v>
+        <f t="shared" si="33"/>
+        <v>2E-3</v>
       </c>
       <c r="AE45" s="6"/>
       <c r="AF45" s="7">
+        <f t="shared" si="34"/>
+        <v>324.5866666666667</v>
+      </c>
+      <c r="AG45" s="7">
+        <f t="shared" si="35"/>
+        <v>-427.69066666666669</v>
+      </c>
+      <c r="AH45" s="7">
+        <f t="shared" si="36"/>
+        <v>-427.69066666666669</v>
+      </c>
+      <c r="AJ45" s="8">
+        <f t="shared" si="37"/>
+        <v>1.9037341153470189</v>
+      </c>
+      <c r="AK45" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.5084496578690132</v>
+      </c>
+      <c r="AM45" s="8">
+        <f t="shared" si="39"/>
+        <v>1.4</v>
+      </c>
+      <c r="AN45" s="8">
+        <f t="shared" si="40"/>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="AP45" s="6">
+        <f t="shared" si="41"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="AQ45" s="6">
         <f t="shared" si="42"/>
-        <v>639.62666666666655</v>
-      </c>
-      <c r="AG45" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AR45" s="6">
         <f t="shared" si="43"/>
-        <v>-330.31466666666654</v>
-      </c>
-      <c r="AH45" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AT45" s="3">
         <f t="shared" si="44"/>
-        <v>-330.31466666666654</v>
-      </c>
-      <c r="AJ45" s="8" t="e">
-        <f>(AF45*D44/1000)/((C45/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK45" s="4" t="e">
-        <f>(AG45*D44/1000)/((C45/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM45" s="8">
+        <v>2.7290000000000002E-2</v>
+      </c>
+      <c r="AU45" s="3">
+        <f t="shared" si="45"/>
+        <v>1.0100000000000003E-3</v>
+      </c>
+      <c r="AV45" s="3">
+        <f t="shared" si="46"/>
+        <v>6.1380000000000011E-3</v>
+      </c>
+      <c r="AX45" s="7">
         <f t="shared" si="47"/>
-        <v>1.5199999999999998</v>
-      </c>
-      <c r="AN45" s="8">
+        <v>11.258499609853978</v>
+      </c>
+      <c r="AY45" s="7">
         <f t="shared" si="48"/>
-        <v>2.4888888888888885</v>
-      </c>
-      <c r="AP45" s="6">
-        <f>O44-H44</f>
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="AQ45" s="6">
-        <f>N44-H44</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="AR45" s="6">
-        <f>K44-H44</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="AT45" s="3">
-        <f t="shared" si="52"/>
-        <v>9.1619999999999993E-2</v>
-      </c>
-      <c r="AU45" s="3">
-        <f t="shared" si="53"/>
-        <v>1.9919999999999993E-2</v>
-      </c>
-      <c r="AV45" s="3">
-        <f t="shared" si="54"/>
-        <v>2.1217999999999997E-2</v>
-      </c>
-      <c r="AX45" s="7">
-        <f t="shared" si="55"/>
-        <v>222.04882398840704</v>
-      </c>
-      <c r="AY45" s="7">
-        <f t="shared" si="56"/>
-        <v>813.60447562383445</v>
+        <v>242.34082230707753</v>
       </c>
       <c r="AZ45" s="7">
-        <f t="shared" si="57"/>
-        <v>80.984732824427468</v>
+        <f t="shared" si="49"/>
+        <v>23.42748091603054</v>
       </c>
       <c r="BB45" s="3">
-        <f>1000*((11.85*(J44-H44))-(1.54*(L44-H44))-(0.08*(M44-H44)))</f>
-        <v>427.93999999999994</v>
+        <f t="shared" si="50"/>
+        <v>78.089999999999989</v>
       </c>
     </row>
     <row r="46" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="C46" s="3">
+        <v>1010</v>
+      </c>
       <c r="D46" s="3">
         <v>6</v>
       </c>
@@ -12011,252 +12168,140 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="AB46" s="6">
-        <f>J45-H45</f>
-        <v>7.0000000000000001E-3</v>
+        <f t="shared" si="31"/>
+        <v>0.105</v>
       </c>
       <c r="AC46" s="6">
-        <f>T45-S45</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="32"/>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AD46" s="6">
-        <f t="shared" si="41"/>
-        <v>2E-3</v>
+        <f t="shared" si="33"/>
+        <v>3.6999999999999991E-2</v>
       </c>
       <c r="AE46" s="6"/>
       <c r="AF46" s="7">
+        <f t="shared" si="34"/>
+        <v>1326.9866666666665</v>
+      </c>
+      <c r="AG46" s="7">
+        <f t="shared" si="35"/>
+        <v>-130.98026666666635</v>
+      </c>
+      <c r="AH46" s="7">
+        <f t="shared" si="36"/>
+        <v>-130.98026666666664</v>
+      </c>
+      <c r="AJ46" s="8">
+        <f t="shared" si="37"/>
+        <v>7.8830891089108892</v>
+      </c>
+      <c r="AK46" s="4">
+        <f t="shared" si="38"/>
+        <v>-0.77810059405940402</v>
+      </c>
+      <c r="AM46" s="8">
+        <f t="shared" si="39"/>
+        <v>1.5441176470588234</v>
+      </c>
+      <c r="AN46" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7988505747126435</v>
+      </c>
+      <c r="AP46" s="6">
+        <f t="shared" si="41"/>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AQ46" s="6">
         <f t="shared" si="42"/>
-        <v>324.5866666666667</v>
-      </c>
-      <c r="AG46" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AR46" s="6">
         <f t="shared" si="43"/>
-        <v>-427.69066666666669</v>
-      </c>
-      <c r="AH46" s="7">
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="AT46" s="3">
         <f t="shared" si="44"/>
-        <v>-427.69066666666669</v>
-      </c>
-      <c r="AJ46" s="8" t="e">
-        <f>(AF46*D45/1000)/((C46/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK46" s="4" t="e">
-        <f>(AG46*D45/1000)/((C46/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM46" s="8">
+        <v>0.20948000000000003</v>
+      </c>
+      <c r="AU46" s="3">
+        <f t="shared" si="45"/>
+        <v>6.7089999999999997E-2</v>
+      </c>
+      <c r="AV46" s="3">
+        <f t="shared" si="46"/>
+        <v>4.5387999999999998E-2</v>
+      </c>
+      <c r="AX46" s="7">
         <f t="shared" si="47"/>
-        <v>1.4</v>
-      </c>
-      <c r="AN46" s="8">
+        <v>747.85419685653778</v>
+      </c>
+      <c r="AY46" s="7">
         <f t="shared" si="48"/>
-        <v>-1.2666666666666666</v>
-      </c>
-      <c r="AP46" s="6">
-        <f>O45-H45</f>
-        <v>2.3E-2</v>
-      </c>
-      <c r="AQ46" s="6">
-        <f>N45-H45</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AR46" s="6">
-        <f>K45-H45</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="AT46" s="3">
-        <f t="shared" si="52"/>
-        <v>2.7290000000000002E-2</v>
-      </c>
-      <c r="AU46" s="3">
-        <f t="shared" si="53"/>
-        <v>1.0100000000000003E-3</v>
-      </c>
-      <c r="AV46" s="3">
-        <f t="shared" si="54"/>
-        <v>6.1380000000000011E-3</v>
-      </c>
-      <c r="AX46" s="7">
-        <f t="shared" si="55"/>
-        <v>11.258499609853978</v>
-      </c>
-      <c r="AY46" s="7">
-        <f t="shared" si="56"/>
-        <v>242.34082230707753</v>
+        <v>1860.2255572329282</v>
       </c>
       <c r="AZ46" s="7">
-        <f t="shared" si="57"/>
-        <v>23.42748091603054</v>
+        <f t="shared" si="49"/>
+        <v>173.23664122137404</v>
       </c>
       <c r="BB46" s="3">
-        <f>1000*((11.85*(J45-H45))-(1.54*(L45-H45))-(0.08*(M45-H45)))</f>
-        <v>78.089999999999989</v>
+        <f t="shared" si="50"/>
+        <v>1193.1299999999999</v>
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AB47" s="6">
-        <f>J46-H46</f>
-        <v>0.105</v>
-      </c>
-      <c r="AC47" s="6">
-        <f>T46-S46</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AD47" s="6">
-        <f t="shared" si="41"/>
-        <v>3.6999999999999991E-2</v>
-      </c>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="7">
-        <f t="shared" si="42"/>
-        <v>1326.9866666666665</v>
-      </c>
-      <c r="AG47" s="7">
-        <f t="shared" si="43"/>
-        <v>-130.98026666666635</v>
-      </c>
-      <c r="AH47" s="7">
-        <f t="shared" si="44"/>
-        <v>-130.98026666666664</v>
-      </c>
-      <c r="AJ47" s="8" t="e">
-        <f>(AF47*D46/1000)/((C47/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK47" s="4" t="e">
-        <f>(AG47*D46/1000)/((C47/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM47" s="8">
-        <f t="shared" si="47"/>
-        <v>1.5441176470588234</v>
-      </c>
-      <c r="AN47" s="8">
-        <f t="shared" si="48"/>
-        <v>1.7988505747126435</v>
-      </c>
-      <c r="AP47" s="6">
-        <f>O46-H46</f>
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AQ47" s="6">
-        <f>N46-H46</f>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="AR47" s="6">
-        <f>K46-H46</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="AT47" s="3">
-        <f t="shared" si="52"/>
-        <v>0.20948000000000003</v>
-      </c>
-      <c r="AU47" s="3">
-        <f t="shared" si="53"/>
-        <v>6.7089999999999997E-2</v>
-      </c>
-      <c r="AV47" s="3">
-        <f t="shared" si="54"/>
-        <v>4.5387999999999998E-2</v>
-      </c>
-      <c r="AX47" s="7">
-        <f t="shared" si="55"/>
-        <v>747.85419685653778</v>
-      </c>
-      <c r="AY47" s="7">
-        <f t="shared" si="56"/>
-        <v>1860.2255572329282</v>
-      </c>
-      <c r="AZ47" s="7">
-        <f t="shared" si="57"/>
-        <v>173.23664122137404</v>
-      </c>
-      <c r="BB47" s="3">
-        <f>1000*((11.85*(J46-H46))-(1.54*(L46-H46))-(0.08*(M46-H46)))</f>
-        <v>1193.1299999999999</v>
-      </c>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AJ47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AB48" s="6">
-        <f>J47-H47</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="6">
-        <f>T47-S47</f>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="6">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="7">
-        <f t="shared" si="42"/>
-        <v>267.30666666666667</v>
-      </c>
-      <c r="AG48" s="7">
-        <f t="shared" si="43"/>
-        <v>-473.5146666666667</v>
-      </c>
-      <c r="AH48" s="7">
-        <f t="shared" si="44"/>
-        <v>-473.5146666666667</v>
-      </c>
-      <c r="AJ48" s="8" t="e">
-        <f>(AF48*D47/1000)/((C48/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK48" s="4" t="e">
-        <f>(AG48*D47/1000)/((C48/1000)*1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM48" s="8" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN48" s="8">
-        <f t="shared" si="48"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AP48" s="6">
-        <f>O47-H47</f>
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="6">
-        <f>N47-H47</f>
-        <v>0</v>
-      </c>
-      <c r="AR48" s="6">
-        <f>K47-H47</f>
-        <v>0</v>
-      </c>
-      <c r="AT48" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AU48" s="3">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AV48" s="3">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AX48" s="7">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AY48" s="7">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AZ48" s="7">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BB48" s="3">
-        <f>1000*((11.85*(J47-H47))-(1.54*(L47-H47))-(0.08*(M47-H47)))</f>
-        <v>0</v>
-      </c>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AJ48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+    </row>
+    <row r="49" spans="28:52" x14ac:dyDescent="0.25">
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AJ49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H6 S4:S6 S10:S44 H11:H44">
@@ -12277,14 +12322,14 @@
       <formula>0.03</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM10:AN48">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+  <conditionalFormatting sqref="AM10:AN49">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>1</formula>
       <formula>1.72</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AH48">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="AF10:AH49">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>34</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15074,7 +15119,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.03</formula>
     </cfRule>
   </conditionalFormatting>
